--- a/genshin/462225247986262080_2020-11-27_14-30-02.xlsx
+++ b/genshin/462225247986262080_2020-11-27_14-30-02.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2020-12-19 17:24:11</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44184.72512731481</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -640,10 +654,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2020-12-17 17:06:13</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44182.71265046296</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -707,10 +719,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2020-12-14 23:35:02</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44179.98266203704</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -782,10 +792,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2020-12-12 01:44:20</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44177.0724537037</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -861,10 +869,8 @@
           <t>3751953715</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2020-12-10 23:57:14</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44175.99807870371</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -932,10 +938,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2020-12-10 11:01:44</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44175.45953703704</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1003,10 +1007,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2020-12-07 22:35:44</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44172.94148148148</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1074,10 +1076,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2020-12-07 22:25:20</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44172.93425925926</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1149,10 +1149,8 @@
           <t>3758699052</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2020-12-07 11:23:35</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44172.47471064814</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1229,10 +1227,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2020-12-07 00:57:41</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44172.04005787037</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
@@ -1304,10 +1300,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2020-12-06 19:19:25</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44171.80515046296</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1367,10 +1361,8 @@
           <t>3767661684</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2020-12-01 20:53:29</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44166.87047453703</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1434,10 +1426,8 @@
           <t>3754785774</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:14:57</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44166.76038194444</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1509,10 +1499,8 @@
           <t>3754785774</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:09:47</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44166.75679398148</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1584,10 +1572,8 @@
           <t>3766312152</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2020-12-01 13:24:43</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44166.55883101852</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1663,10 +1649,8 @@
           <t>3754241625</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2020-12-01 11:55:48</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44166.49708333334</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1738,10 +1722,8 @@
           <t>3754241625</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2020-12-01 03:35:35</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44166.14971064815</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1813,10 +1795,8 @@
           <t>3764335555</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2020-11-30 21:16:29</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44165.88644675926</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1880,10 +1860,8 @@
           <t>3763821080</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2020-11-30 18:57:33</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44165.78996527778</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
@@ -1955,10 +1933,8 @@
           <t>3763324669</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2020-11-30 16:24:20</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44165.68356481481</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
@@ -2030,10 +2006,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2020-11-30 01:44:56</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44165.07287037037</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2101,10 +2075,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2020-11-29 23:10:12</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44164.96541666667</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2172,10 +2144,8 @@
           <t>3761355543</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2020-11-29 22:47:52</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44164.9499074074</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2251,10 +2221,8 @@
           <t>3761350494</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2020-11-29 22:47:17</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44164.94950231481</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2331,10 +2299,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2020-11-29 18:59:00</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44164.79097222222</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2410,10 +2376,8 @@
           <t>3760461379</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2020-11-29 18:56:46</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44164.78942129629</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2489,10 +2453,8 @@
           <t>3752707756</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2020-11-29 18:45:25</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44164.78153935185</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2564,10 +2526,8 @@
           <t>3752907500</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2020-11-29 18:43:56</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44164.78050925926</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2639,10 +2599,8 @@
           <t>3760011451</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2020-11-29 16:48:50</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44164.70057870371</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2710,10 +2668,8 @@
           <t>3759549950</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2020-11-29 14:22:53</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44164.59922453704</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2777,10 +2733,8 @@
           <t>3759537305</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2020-11-29 14:16:50</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44164.59502314815</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2856,10 +2810,8 @@
           <t>3751838658</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2020-11-29 13:36:10</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44164.5667824074</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2923,10 +2875,8 @@
           <t>3759252124</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2020-11-29 12:53:14</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44164.53696759259</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3002,10 +2952,8 @@
           <t>3754876425</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2020-11-29 10:50:15</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44164.4515625</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3074,10 +3022,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2020-11-29 10:39:53</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44164.44436342592</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3145,10 +3091,8 @@
           <t>3758699052</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2020-11-29 10:17:25</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44164.42876157408</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3212,10 +3156,8 @@
           <t>3758308859</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2020-11-29 06:26:24</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44164.26833333333</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3287,10 +3229,8 @@
           <t>3752387861</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2020-11-29 05:37:01</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44164.23403935185</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3354,10 +3294,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2020-11-29 03:22:44</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44164.14078703704</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3429,10 +3367,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2020-11-29 00:15:33</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44164.01079861111</v>
       </c>
       <c r="I41" t="n">
         <v>1</v>
@@ -3500,10 +3436,8 @@
           <t>3754876425</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2020-11-29 00:10:55</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44164.00758101852</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3567,10 +3501,8 @@
           <t>3754241625</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2020-11-28 21:33:09</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44163.89802083333</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3642,10 +3574,8 @@
           <t>3756653568</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2020-11-28 19:31:00</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44163.81319444445</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3705,10 +3635,8 @@
           <t>3756621200</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2020-11-28 19:21:55</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44163.80688657407</v>
       </c>
       <c r="I45" t="n">
         <v>1</v>
@@ -3772,10 +3700,8 @@
           <t>3756369020</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2020-11-28 18:24:27</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44163.76697916666</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3839,10 +3765,8 @@
           <t>3756380341</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2020-11-28 18:23:30</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44163.76631944445</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3918,10 +3842,8 @@
           <t>3756369020</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2020-11-28 18:22:30</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44163.765625</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3997,10 +3919,8 @@
           <t>3756361596</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2020-11-28 18:19:37</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44163.76362268518</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4076,10 +3996,8 @@
           <t>3756353389</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2020-11-28 18:18:23</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44163.7627662037</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4155,10 +4073,8 @@
           <t>3756121509</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2020-11-28 17:17:18</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44163.72034722222</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4224,10 +4140,8 @@
           <t>3755749150</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2020-11-28 15:22:50</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44163.64085648148</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4299,10 +4213,8 @@
           <t>3751803543</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2020-11-28 15:20:26</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44163.63918981481</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4374,10 +4286,8 @@
           <t>3754210369</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2020-11-28 14:52:25</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44163.61973379629</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4445,10 +4355,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2020-11-28 14:42:49</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44163.61306712963</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4512,10 +4420,8 @@
           <t>3754876425</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2020-11-28 14:21:51</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44163.59850694444</v>
       </c>
       <c r="I56" t="n">
         <v>1</v>
@@ -4579,10 +4485,8 @@
           <t>3755556630</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2020-11-28 14:20:53</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44163.59783564815</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4658,10 +4562,8 @@
           <t>3755556630</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2020-11-28 14:18:25</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44163.59612268519</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4725,10 +4627,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2020-11-28 14:01:33</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44163.58440972222</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4796,10 +4696,8 @@
           <t>3755491820</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2020-11-28 13:56:58</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44163.58122685185</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4863,10 +4761,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2020-11-28 13:36:47</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44163.56721064815</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4930,10 +4826,8 @@
           <t>3755414476</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2020-11-28 13:35:15</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44163.56614583333</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4997,10 +4891,8 @@
           <t>3755293899</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2020-11-28 13:00:47</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44163.54221064815</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5064,10 +4956,8 @@
           <t>3755291965</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2020-11-28 12:59:19</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44163.54119212963</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5143,10 +5033,8 @@
           <t>3754876425</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2020-11-28 12:41:12</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44163.52861111111</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5214,10 +5102,8 @@
           <t>3755169743</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2020-11-28 12:29:57</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44163.52079861111</v>
       </c>
       <c r="I66" t="n">
         <v>8</v>
@@ -5285,10 +5171,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2020-11-28 12:19:53</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44163.51380787037</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5356,10 +5240,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2020-11-28 12:10:42</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44163.50743055555</v>
       </c>
       <c r="I68" t="n">
         <v>2</v>
@@ -5427,10 +5309,8 @@
           <t>3754963899</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2020-11-28 11:32:55</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44163.48119212963</v>
       </c>
       <c r="I69" t="n">
         <v>2</v>
@@ -5506,10 +5386,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2020-11-28 11:25:27</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44163.47600694445</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5573,10 +5451,8 @@
           <t>3754930845</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2020-11-28 11:20:35</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44163.47262731481</v>
       </c>
       <c r="I71" t="n">
         <v>2</v>
@@ -5648,10 +5524,8 @@
           <t>3751806864</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2020-11-28 11:14:14</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44163.46821759259</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5723,10 +5597,8 @@
           <t>3751806864</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2020-11-28 11:13:27</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44163.46767361111</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5798,10 +5670,8 @@
           <t>3751806864</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2020-11-28 11:13:03</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44163.46739583334</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5873,10 +5743,8 @@
           <t>3754191580</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2020-11-28 11:08:31</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44163.46424768519</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5940,10 +5808,8 @@
           <t>3754198248</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2020-11-28 11:07:08</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44163.46328703704</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6007,10 +5873,8 @@
           <t>3754192692</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2020-11-28 11:06:29</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44163.46283564815</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6074,10 +5938,8 @@
           <t>3754191580</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2020-11-28 11:05:48</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44163.46236111111</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6141,10 +6003,8 @@
           <t>3754876425</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2020-11-28 11:01:57</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44163.4596875</v>
       </c>
       <c r="I79" t="n">
         <v>3</v>
@@ -6208,10 +6068,8 @@
           <t>3754241625</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2020-11-28 10:55:28</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44163.45518518519</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6277,10 +6135,8 @@
           <t>3754198248</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2020-11-28 10:51:42</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44163.45256944445</v>
       </c>
       <c r="I81" t="n">
         <v>2</v>
@@ -6344,10 +6200,8 @@
           <t>3752998723</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2020-11-28 10:42:20</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44163.44606481482</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6419,10 +6273,8 @@
           <t>3754785774</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2020-11-28 10:31:04</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44163.43824074074</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6494,10 +6346,8 @@
           <t>3751806864</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2020-11-28 10:26:14</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44163.43488425926</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6569,10 +6419,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2020-11-28 10:20:39</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44163.43100694445</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6636,10 +6484,8 @@
           <t>3754210369</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2020-11-28 10:02:58</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44163.41872685185</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6716,10 +6562,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2020-11-28 09:56:53</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44163.41450231482</v>
       </c>
       <c r="I87" t="n">
         <v>1</v>
@@ -6791,10 +6635,8 @@
           <t>3751867225</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2020-11-28 09:26:13</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44163.39320601852</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6866,10 +6708,8 @@
           <t>3751806864</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2020-11-28 09:25:26</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44163.39266203704</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6941,10 +6781,8 @@
           <t>3754611933</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2020-11-28 09:24:23</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44163.39193287037</v>
       </c>
       <c r="I90" t="n">
         <v>4</v>
@@ -7020,10 +6858,8 @@
           <t>3754558601</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2020-11-28 09:03:59</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44163.3777662037</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7095,10 +6931,8 @@
           <t>3751827315</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2020-11-28 08:27:38</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44163.35252314815</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7166,10 +7000,8 @@
           <t>3754489071</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2020-11-28 08:26:27</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44163.35170138889</v>
       </c>
       <c r="I93" t="n">
         <v>1</v>
@@ -7237,10 +7069,8 @@
           <t>3751806864</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2020-11-28 07:57:58</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44163.3319212963</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7312,10 +7142,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2020-11-28 07:18:56</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44163.30481481482</v>
       </c>
       <c r="I95" t="n">
         <v>1</v>
@@ -7379,10 +7207,8 @@
           <t>3754402930</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2020-11-28 07:13:06</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44163.30076388889</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7450,10 +7276,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2020-11-28 03:35:55</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44163.14994212963</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7517,10 +7341,8 @@
           <t>3751855672</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2020-11-28 03:11:29</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44163.13297453704</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7588,10 +7410,8 @@
           <t>3752068819</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2020-11-28 03:04:09</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44163.12788194444</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7655,10 +7475,8 @@
           <t>3752068819</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2020-11-28 03:03:29</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44163.12741898148</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7722,10 +7540,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2020-11-28 02:39:57</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44163.11107638889</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7793,10 +7609,8 @@
           <t>3754241625</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2020-11-28 02:33:34</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44163.10664351852</v>
       </c>
       <c r="I102" t="n">
         <v>1</v>
@@ -7868,10 +7682,8 @@
           <t>3754241443</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2020-11-28 02:33:01</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44163.10626157407</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7947,10 +7759,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2020-11-28 02:18:47</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44163.09637731482</v>
       </c>
       <c r="I104" t="n">
         <v>2</v>
@@ -8022,10 +7832,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2020-11-28 02:13:23</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44163.09262731481</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8089,10 +7897,8 @@
           <t>3754210369</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2020-11-28 02:05:06</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44163.086875</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8160,10 +7966,8 @@
           <t>3754198436</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2020-11-28 02:01:06</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44163.08409722222</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8231,10 +8035,8 @@
           <t>3754198248</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2020-11-28 02:00:42</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44163.08381944444</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8302,10 +8104,8 @@
           <t>3754200194</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2020-11-28 02:00:30</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44163.08368055556</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8373,10 +8173,8 @@
           <t>3754192692</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2020-11-28 01:59:29</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44163.08297453704</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8444,10 +8242,8 @@
           <t>3754191580</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2020-11-28 01:57:20</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44163.08148148148</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8515,10 +8311,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2020-11-28 01:55:10</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44163.07997685186</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8594,10 +8388,8 @@
           <t>3754190243</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2020-11-28 01:54:49</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44163.07973379629</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8665,10 +8457,8 @@
           <t>3752966929</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2020-11-28 01:51:28</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44163.07740740741</v>
       </c>
       <c r="I114" t="n">
         <v>1</v>
@@ -8736,10 +8526,8 @@
           <t>3751878094</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2020-11-28 01:47:08</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44163.07439814815</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8807,10 +8595,8 @@
           <t>3754167893</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2020-11-28 01:42:27</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44163.07114583333</v>
       </c>
       <c r="I116" t="n">
         <v>2</v>
@@ -8878,10 +8664,8 @@
           <t>3754156739</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2020-11-28 01:36:39</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44163.06711805556</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -8953,10 +8737,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2020-11-28 01:35:09</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44163.06607638889</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9028,10 +8810,8 @@
           <t>3754129710</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2020-11-28 01:26:44</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44163.06023148148</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9107,10 +8887,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2020-11-28 01:18:11</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44163.05429398148</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9189,10 +8967,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2020-11-28 01:00:46</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44163.04219907407</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9267,10 +9043,8 @@
           <t>3754044840</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2020-11-28 00:51:07</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44163.03549768519</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9345,10 +9119,8 @@
           <t>3754040243</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2020-11-28 00:46:25</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44163.03223379629</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9429,10 +9201,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2020-11-28 00:45:44</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44163.03175925926</v>
       </c>
       <c r="I124" t="n">
         <v>5</v>
@@ -9505,10 +9275,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2020-11-28 00:35:42</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44163.02479166666</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9584,10 +9352,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2020-11-28 00:29:11</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44163.0202662037</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9663,10 +9429,8 @@
           <t>3753954396</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2020-11-28 00:22:24</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44163.01555555555</v>
       </c>
       <c r="I127" t="n">
         <v>2</v>
@@ -9730,10 +9494,8 @@
           <t>3753812567</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2020-11-28 00:12:28</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44163.00865740741</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9801,10 +9563,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2020-11-27 23:51:03</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44162.99378472222</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9880,10 +9640,8 @@
           <t>3753829162</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2020-11-27 23:50:39</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44162.99350694445</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9943,10 +9701,8 @@
           <t>3752119875</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2020-11-27 23:50:27</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44162.99336805556</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -10010,10 +9766,8 @@
           <t>3753812567</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2020-11-27 23:45:46</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44162.99011574074</v>
       </c>
       <c r="I132" t="n">
         <v>2</v>
@@ -10077,10 +9831,8 @@
           <t>3753803665</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2020-11-27 23:43:25</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44162.9884837963</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10140,10 +9892,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2020-11-27 23:38:28</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44162.98504629629</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10207,10 +9957,8 @@
           <t>3753781933</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2020-11-27 23:37:57</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44162.9846875</v>
       </c>
       <c r="I135" t="n">
         <v>2</v>
@@ -10274,10 +10022,8 @@
           <t>3753776184</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2020-11-27 23:35:03</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44162.98267361111</v>
       </c>
       <c r="I136" t="n">
         <v>3</v>
@@ -10349,10 +10095,8 @@
           <t>3753765620</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2020-11-27 23:33:24</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44162.98152777777</v>
       </c>
       <c r="I137" t="n">
         <v>1</v>
@@ -10430,10 +10174,8 @@
           <t>3752176870</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2020-11-27 23:28:22</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44162.97803240741</v>
       </c>
       <c r="I138" t="n">
         <v>1</v>
@@ -10504,10 +10246,8 @@
           <t>3752966929</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2020-11-27 23:25:14</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44162.97585648148</v>
       </c>
       <c r="I139" t="n">
         <v>2</v>
@@ -10571,10 +10311,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2020-11-27 23:23:03</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44162.97434027777</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10651,10 +10389,8 @@
           <t>3752966929</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2020-11-27 23:20:48</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44162.97277777778</v>
       </c>
       <c r="I141" t="n">
         <v>2</v>
@@ -10718,10 +10454,8 @@
           <t>3752966929</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2020-11-27 23:19:15</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44162.97170138889</v>
       </c>
       <c r="I142" t="n">
         <v>1</v>
@@ -10785,10 +10519,8 @@
           <t>3752966929</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2020-11-27 23:18:02</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44162.97085648148</v>
       </c>
       <c r="I143" t="n">
         <v>1</v>
@@ -10852,10 +10584,8 @@
           <t>3753639158</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2020-11-27 23:05:12</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44162.96194444445</v>
       </c>
       <c r="I144" t="n">
         <v>2</v>
@@ -10919,10 +10649,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2020-11-27 23:00:59</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44162.95901620371</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -10990,10 +10718,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2020-11-27 22:59:06</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44162.95770833334</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11063,10 +10789,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2020-11-27 22:57:44</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44162.95675925926</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11134,10 +10858,8 @@
           <t>3753610636</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2020-11-27 22:57:22</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44162.95650462963</v>
       </c>
       <c r="I148" t="n">
         <v>1</v>
@@ -11209,10 +10931,8 @@
           <t>3753604147</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2020-11-27 22:57:08</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44162.9563425926</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11284,10 +11004,8 @@
           <t>3753606938</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2020-11-27 22:57:00</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44162.95625</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11359,10 +11077,8 @@
           <t>3751991681</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2020-11-27 22:53:34</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44162.95386574074</v>
       </c>
       <c r="I151" t="n">
         <v>1</v>
@@ -11438,10 +11154,8 @@
           <t>3751991681</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2020-11-27 22:43:57</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44162.9471875</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11505,10 +11219,8 @@
           <t>3753537338</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2020-11-27 22:42:03</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44162.94586805555</v>
       </c>
       <c r="I153" t="n">
         <v>3</v>
@@ -11572,10 +11284,8 @@
           <t>3751991681</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2020-11-27 22:40:42</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44162.94493055555</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11651,10 +11361,8 @@
           <t>3752058089</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2020-11-27 22:40:02</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44162.94446759259</v>
       </c>
       <c r="I155" t="n">
         <v>2</v>
@@ -11719,10 +11427,8 @@
           <t>3752058089</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2020-11-27 22:36:23</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44162.94193287037</v>
       </c>
       <c r="I156" t="n">
         <v>1</v>
@@ -11786,10 +11492,8 @@
           <t>3753507676</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2020-11-27 22:35:21</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44162.94121527778</v>
       </c>
       <c r="I157" t="n">
         <v>2</v>
@@ -11861,10 +11565,8 @@
           <t>3753511172</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2020-11-27 22:34:43</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44162.94077546296</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -11940,10 +11642,8 @@
           <t>3753510608</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2020-11-27 22:34:20</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44162.94050925926</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -12015,10 +11715,8 @@
           <t>3753503962</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2020-11-27 22:34:10</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44162.94039351852</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12086,10 +11784,8 @@
           <t>3752058089</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2020-11-27 22:34:10</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44162.94039351852</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12153,10 +11849,8 @@
           <t>3752453292</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2020-11-27 22:32:46</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44162.93942129629</v>
       </c>
       <c r="I162" t="n">
         <v>1</v>
@@ -12220,10 +11914,8 @@
           <t>3753491666</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2020-11-27 22:31:10</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44162.93831018519</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12287,10 +11979,8 @@
           <t>3753477393</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2020-11-27 22:28:11</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44162.93623842593</v>
       </c>
       <c r="I164" t="n">
         <v>8</v>
@@ -12366,10 +12056,8 @@
           <t>3753461643</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2020-11-27 22:24:07</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44162.93341435185</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12437,10 +12125,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2020-11-27 22:19:36</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44162.93027777778</v>
       </c>
       <c r="I166" t="n">
         <v>2</v>
@@ -12508,10 +12194,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2020-11-27 22:16:03</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44162.9278125</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12575,10 +12259,8 @@
           <t>3753391352</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2020-11-27 22:07:54</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44162.92215277778</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12642,10 +12324,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2020-11-27 22:05:22</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44162.92039351852</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12717,10 +12397,8 @@
           <t>3752058089</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2020-11-27 21:57:56</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44162.91523148148</v>
       </c>
       <c r="I170" t="n">
         <v>5</v>
@@ -12784,10 +12462,8 @@
           <t>3753335086</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2020-11-27 21:53:49</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44162.91237268518</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12851,10 +12527,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2020-11-27 21:53:43</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44162.91230324074</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -12926,10 +12600,8 @@
           <t>3752071445</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2020-11-27 21:51:03</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44162.91045138889</v>
       </c>
       <c r="I173" t="n">
         <v>1</v>
@@ -13001,10 +12673,8 @@
           <t>3752453292</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2020-11-27 21:50:46</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44162.91025462963</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13068,10 +12738,8 @@
           <t>3753309379</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2020-11-27 21:49:50</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44162.90960648148</v>
       </c>
       <c r="I175" t="n">
         <v>2</v>
@@ -13135,10 +12803,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2020-11-27 21:48:03</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44162.90836805556</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13207,10 +12873,8 @@
           <t>3752453292</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2020-11-27 21:48:03</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44162.90836805556</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13282,10 +12946,8 @@
           <t>3752453292</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2020-11-27 21:43:43</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44162.9053587963</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13349,10 +13011,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2020-11-27 21:43:29</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44162.90519675926</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13416,10 +13076,8 @@
           <t>3752453884</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2020-11-27 21:39:16</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44162.90226851852</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13491,10 +13149,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2020-11-27 21:38:56</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44162.90203703703</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13558,10 +13214,8 @@
           <t>3752453292</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2020-11-27 21:38:13</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44162.90153935185</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13633,10 +13287,8 @@
           <t>3753241887</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2020-11-27 21:31:52</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44162.89712962963</v>
       </c>
       <c r="I183" t="n">
         <v>1</v>
@@ -13712,10 +13364,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2020-11-27 21:29:55</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44162.89577546297</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13788,10 +13438,8 @@
           <t>3753218085</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2020-11-27 21:27:25</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44162.89403935185</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -13860,10 +13508,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2020-11-27 21:23:31</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44162.89133101852</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -13936,10 +13582,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2020-11-27 21:16:12</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44162.88625</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14007,10 +13651,8 @@
           <t>3753144997</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2020-11-27 21:15:22</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44162.8856712963</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14082,10 +13724,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2020-11-27 21:05:16</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44162.8786574074</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14149,10 +13789,8 @@
           <t>3753097765</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2020-11-27 20:57:14</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44162.87307870371</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14216,10 +13854,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2020-11-27 20:56:05</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44162.87228009259</v>
       </c>
       <c r="I191" t="n">
         <v>14</v>
@@ -14291,10 +13927,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2020-11-27 20:54:47</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44162.87137731481</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14363,10 +13997,8 @@
           <t>3753073444</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2020-11-27 20:50:54</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44162.86868055556</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14442,10 +14074,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2020-11-27 20:45:40</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44162.8650462963</v>
       </c>
       <c r="I194" t="n">
         <v>9</v>
@@ -14517,10 +14147,8 @@
           <t>3751897550</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2020-11-27 20:38:38</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44162.86016203704</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14588,10 +14216,8 @@
           <t>3753019376</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2020-11-27 20:37:02</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44162.85905092592</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14659,10 +14285,8 @@
           <t>3752985513</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2020-11-27 20:33:17</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44162.85644675926</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14734,10 +14358,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2020-11-27 20:33:06</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44162.85631944444</v>
       </c>
       <c r="I198" t="n">
         <v>3</v>
@@ -14813,10 +14435,8 @@
           <t>3752998723</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2020-11-27 20:32:10</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44162.8556712963</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -14892,10 +14512,8 @@
           <t>3752032131</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2020-11-27 20:28:37</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44162.85320601852</v>
       </c>
       <c r="I200" t="n">
         <v>6</v>
@@ -14971,10 +14589,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2020-11-27 20:28:37</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44162.85320601852</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15046,10 +14662,8 @@
           <t>3752707756</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2020-11-27 20:26:23</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44162.85165509259</v>
       </c>
       <c r="I202" t="n">
         <v>1</v>
@@ -15117,10 +14731,8 @@
           <t>3752985513</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2020-11-27 20:26:20</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44162.85162037037</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15184,10 +14796,8 @@
           <t>3752071445</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2020-11-27 20:26:06</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44162.85145833333</v>
       </c>
       <c r="I204" t="n">
         <v>3</v>
@@ -15263,10 +14873,8 @@
           <t>3752966929</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2020-11-27 20:23:25</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44162.84959490741</v>
       </c>
       <c r="I205" t="n">
         <v>1</v>
@@ -15342,10 +14950,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2020-11-27 20:17:59</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44162.84582175926</v>
       </c>
       <c r="I206" t="n">
         <v>8</v>
@@ -15409,10 +15015,8 @@
           <t>3752942788</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2020-11-27 20:16:37</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44162.84487268519</v>
       </c>
       <c r="I207" t="n">
         <v>3</v>
@@ -15476,10 +15080,8 @@
           <t>3752933887</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2020-11-27 20:15:47</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44162.84429398148</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15555,10 +15157,8 @@
           <t>3752915451</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2020-11-27 20:09:24</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44162.83986111111</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15622,10 +15222,8 @@
           <t>3752907500</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2020-11-27 20:08:53</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44162.83950231481</v>
       </c>
       <c r="I210" t="n">
         <v>1</v>
@@ -15697,10 +15295,8 @@
           <t>3752905946</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2020-11-27 20:07:42</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44162.83868055556</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15768,10 +15364,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2020-11-27 20:02:04</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44162.83476851852</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -15843,10 +15437,8 @@
           <t>3752873972</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2020-11-27 20:00:40</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44162.8337962963</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -15918,10 +15510,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2020-11-27 19:58:02</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44162.8319675926</v>
       </c>
       <c r="I214" t="n">
         <v>1</v>
@@ -15993,10 +15583,8 @@
           <t>3752843600</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2020-11-27 19:52:35</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44162.82818287037</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16068,10 +15656,8 @@
           <t>3752453292</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2020-11-27 19:52:12</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44162.82791666667</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16131,10 +15717,8 @@
           <t>3752707756</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2020-11-27 19:52:08</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44162.82787037037</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16198,10 +15782,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2020-11-27 19:47:23</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44162.82457175926</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16273,10 +15855,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2020-11-27 19:42:32</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44162.8212037037</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16353,10 +15933,8 @@
           <t>3752805320</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2020-11-27 19:40:45</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44162.81996527778</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16424,10 +16002,8 @@
           <t>3752797332</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2020-11-27 19:40:01</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44162.81945601852</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16495,10 +16071,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2020-11-27 19:36:18</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44162.816875</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16570,10 +16144,8 @@
           <t>3752782238</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2020-11-27 19:36:02</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44162.81668981481</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16633,10 +16205,8 @@
           <t>3752728982</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2020-11-27 19:29:23</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44162.81207175926</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16700,10 +16270,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2020-11-27 19:25:28</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44162.80935185185</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16779,10 +16347,8 @@
           <t>3752734359</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2020-11-27 19:24:54</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44162.80895833333</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -16854,10 +16420,8 @@
           <t>3752713267</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2020-11-27 19:19:19</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44162.80508101852</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -16933,10 +16497,8 @@
           <t>3752707756</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2020-11-27 19:17:29</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44162.80380787037</v>
       </c>
       <c r="I228" t="n">
         <v>9</v>
@@ -17004,10 +16566,8 @@
           <t>3752507024</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2020-11-27 19:15:04</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44162.80212962963</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17075,10 +16635,8 @@
           <t>3752701024</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2020-11-27 19:14:57</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44162.80204861111</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17154,10 +16712,8 @@
           <t>3752687083</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2020-11-27 19:12:04</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44162.8000462963</v>
       </c>
       <c r="I231" t="n">
         <v>1</v>
@@ -17221,10 +16777,8 @@
           <t>3752654216</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2020-11-27 19:05:19</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44162.7953587963</v>
       </c>
       <c r="I232" t="n">
         <v>9</v>
@@ -17300,10 +16854,8 @@
           <t>3751827115</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2020-11-27 18:58:26</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44162.7905787037</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17367,10 +16919,8 @@
           <t>3752627559</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2020-11-27 18:58:22</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44162.79053240741</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17439,10 +16989,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2020-11-27 18:54:32</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44162.78787037037</v>
       </c>
       <c r="I235" t="n">
         <v>2</v>
@@ -17514,10 +17062,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2020-11-27 18:54:15</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44162.78767361111</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17585,10 +17131,8 @@
           <t>3752594980</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2020-11-27 18:51:35</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44162.78582175926</v>
       </c>
       <c r="I237" t="n">
         <v>1</v>
@@ -17652,10 +17196,8 @@
           <t>3752568727</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2020-11-27 18:48:00</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44162.78333333333</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17723,10 +17265,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2020-11-27 18:47:38</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44162.7830787037</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -17794,10 +17334,8 @@
           <t>3752568727</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2020-11-27 18:45:15</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44162.78142361111</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -17861,10 +17399,8 @@
           <t>3752549086</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2020-11-27 18:39:52</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44162.77768518519</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -17932,10 +17468,8 @@
           <t>3752134831</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2020-11-27 18:39:47</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44162.77762731481</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -18003,10 +17537,8 @@
           <t>3752544731</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2020-11-27 18:39:36</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44162.7775</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18082,10 +17614,8 @@
           <t>3752216212</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2020-11-27 18:38:49</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44162.77695601852</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18153,10 +17683,8 @@
           <t>3752544731</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2020-11-27 18:38:44</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44162.77689814815</v>
       </c>
       <c r="I245" t="n">
         <v>2</v>
@@ -18216,10 +17744,8 @@
           <t>3752536887</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2020-11-27 18:36:39</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44162.77545138889</v>
       </c>
       <c r="I246" t="n">
         <v>1</v>
@@ -18295,10 +17821,8 @@
           <t>3751886888</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2020-11-27 18:35:35</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44162.77471064815</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18370,10 +17894,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2020-11-27 18:34:26</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44162.77391203704</v>
       </c>
       <c r="I248" t="n">
         <v>1</v>
@@ -18437,10 +17959,8 @@
           <t>3752445829</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2020-11-27 18:34:21</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44162.77385416667</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18508,10 +18028,8 @@
           <t>3752032131</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2020-11-27 18:31:06</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44162.77159722222</v>
       </c>
       <c r="I250" t="n">
         <v>5</v>
@@ -18579,10 +18097,8 @@
           <t>3752507024</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2020-11-27 18:29:29</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44162.77047453704</v>
       </c>
       <c r="I251" t="n">
         <v>1</v>
@@ -18658,10 +18174,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2020-11-27 18:29:23</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44162.77040509259</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18726,10 +18240,8 @@
           <t>3751991681</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2020-11-27 18:29:20</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44162.77037037037</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -18793,10 +18305,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2020-11-27 18:27:24</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44162.76902777778</v>
       </c>
       <c r="I254" t="n">
         <v>2</v>
@@ -18872,10 +18382,8 @@
           <t>3751897550</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2020-11-27 18:24:51</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44162.76725694445</v>
       </c>
       <c r="I255" t="n">
         <v>2</v>
@@ -18939,10 +18447,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2020-11-27 18:24:01</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44162.76667824074</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -19006,10 +18512,8 @@
           <t>3751991681</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2020-11-27 18:23:07</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44162.76605324074</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19077,10 +18581,8 @@
           <t>3751867225</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2020-11-27 18:22:32</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44162.76564814815</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19156,10 +18658,8 @@
           <t>3752477529</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2020-11-27 18:22:27</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44162.76559027778</v>
       </c>
       <c r="I259" t="n">
         <v>4</v>
@@ -19223,10 +18723,8 @@
           <t>3752453884</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2020-11-27 18:19:15</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44162.76336805556</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19295,10 +18793,8 @@
           <t>3751991681</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2020-11-27 18:19:03</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44162.76322916667</v>
       </c>
       <c r="I261" t="n">
         <v>1</v>
@@ -19362,10 +18858,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2020-11-27 18:19:02</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44162.76321759259</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19425,10 +18919,8 @@
           <t>3752466922</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2020-11-27 18:18:52</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44162.76310185185</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19502,10 +18994,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2020-11-27 18:16:40</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44162.76157407407</v>
       </c>
       <c r="I264" t="n">
         <v>106</v>
@@ -19573,10 +19063,8 @@
           <t>3752453884</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2020-11-27 18:16:39</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44162.7615625</v>
       </c>
       <c r="I265" t="n">
         <v>2</v>
@@ -19644,10 +19132,8 @@
           <t>3752453292</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2020-11-27 18:16:12</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44162.76125</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19711,10 +19197,8 @@
           <t>3751909001</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2020-11-27 18:13:53</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44162.7596412037</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -19786,10 +19270,8 @@
           <t>3752445829</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2020-11-27 18:13:40</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44162.75949074074</v>
       </c>
       <c r="I268" t="n">
         <v>5</v>
@@ -19857,10 +19339,8 @@
           <t>3752247847</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2020-11-27 18:13:12</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44162.75916666666</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -19928,10 +19408,8 @@
           <t>3752443101</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2020-11-27 18:13:11</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44162.75915509259</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -20007,10 +19485,8 @@
           <t>3752437717</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2020-11-27 18:12:04</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44162.75837962963</v>
       </c>
       <c r="I271" t="n">
         <v>2</v>
@@ -20078,10 +19554,8 @@
           <t>3752431587</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2020-11-27 18:10:30</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44162.75729166667</v>
       </c>
       <c r="I272" t="n">
         <v>1</v>
@@ -20149,10 +19623,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2020-11-27 18:05:23</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44162.75373842593</v>
       </c>
       <c r="I273" t="n">
         <v>1</v>
@@ -20224,10 +19696,8 @@
           <t>3752410019</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2020-11-27 18:03:36</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44162.7525</v>
       </c>
       <c r="I274" t="n">
         <v>2</v>
@@ -20305,10 +19775,8 @@
           <t>3752387861</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2020-11-27 18:00:47</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44162.75054398148</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20380,10 +19848,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:59:04</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44162.74935185185</v>
       </c>
       <c r="I276" t="n">
         <v>1</v>
@@ -20447,10 +19913,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:55:57</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44162.7471875</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20526,10 +19990,8 @@
           <t>3752361272</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:53:00</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44162.74513888889</v>
       </c>
       <c r="I278" t="n">
         <v>1</v>
@@ -20601,10 +20063,8 @@
           <t>3752356258</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:51:46</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44162.74428240741</v>
       </c>
       <c r="I279" t="n">
         <v>1</v>
@@ -20680,10 +20140,8 @@
           <t>3752349127</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:51:18</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44162.74395833333</v>
       </c>
       <c r="I280" t="n">
         <v>4</v>
@@ -20755,10 +20213,8 @@
           <t>3752349029</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:51:14</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44162.74391203704</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -20818,10 +20274,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:50:54</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44162.74368055556</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -20881,10 +20335,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:50:04</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44162.74310185185</v>
       </c>
       <c r="I283" t="n">
         <v>8</v>
@@ -20952,10 +20404,8 @@
           <t>3752342006</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:48:19</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44162.74188657408</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21023,10 +20473,8 @@
           <t>3752345308</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:48:18</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44162.741875</v>
       </c>
       <c r="I285" t="n">
         <v>1</v>
@@ -21102,10 +20550,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:44:59</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44162.73957175926</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -21173,10 +20619,8 @@
           <t>3752315351</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:40:09</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44162.73621527778</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21244,10 +20688,8 @@
           <t>3752320100</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:40:03</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44162.73614583333</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21311,10 +20753,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:38:55</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44162.73535879629</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21374,10 +20814,8 @@
           <t>3751988955</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:36:08</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44162.73342592592</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21445,10 +20883,8 @@
           <t>3752297433</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:36:05</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44162.73339120371</v>
       </c>
       <c r="I291" t="n">
         <v>15</v>
@@ -21512,10 +20948,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:30:11</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44162.72929398148</v>
       </c>
       <c r="I292" t="n">
         <v>18</v>
@@ -21583,10 +21017,8 @@
           <t>3751897550</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:29:36</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44162.72888888889</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -21655,10 +21087,8 @@
           <t>3752254211</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:24:42</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44162.72548611111</v>
       </c>
       <c r="I294" t="n">
         <v>5</v>
@@ -21727,10 +21157,8 @@
           <t>3752081963</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:24:37</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44162.72542824074</v>
       </c>
       <c r="I295" t="n">
         <v>1</v>
@@ -21807,10 +21235,8 @@
           <t>3752247847</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:21:51</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44162.72350694444</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -21874,10 +21300,8 @@
           <t>3752244119</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:21:38</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44162.72335648148</v>
       </c>
       <c r="I297" t="n">
         <v>2</v>
@@ -21956,10 +21380,8 @@
           <t>3752247847</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:20:42</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44162.72270833333</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -22027,10 +21449,8 @@
           <t>3752246539</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:19:31</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44162.72188657407</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22090,10 +21510,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:18:55</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44162.72146990741</v>
       </c>
       <c r="I300" t="n">
         <v>1</v>
@@ -22161,10 +21579,8 @@
           <t>3752240793</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:18:40</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44162.72129629629</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22236,10 +21652,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:15:53</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44162.71936342592</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22303,10 +21717,8 @@
           <t>3752210540</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:14:43</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44162.71855324074</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -22370,10 +21782,8 @@
           <t>3752221624</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:13:24</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44162.71763888889</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22445,10 +21855,8 @@
           <t>3752219596</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:13:18</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44162.71756944444</v>
       </c>
       <c r="I305" t="n">
         <v>2</v>
@@ -22520,10 +21928,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:11:25</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44162.71626157407</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -22595,10 +22001,8 @@
           <t>3752104380</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:10:39</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44162.71572916667</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -22674,10 +22078,8 @@
           <t>3752216212</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:10:12</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44162.71541666667</v>
       </c>
       <c r="I308" t="n">
         <v>8</v>
@@ -22741,10 +22143,8 @@
           <t>3752104380</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:09:53</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44162.71519675926</v>
       </c>
       <c r="I309" t="n">
         <v>2</v>
@@ -22820,10 +22220,8 @@
           <t>3752207799</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:09:50</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44162.71516203704</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -22887,10 +22285,8 @@
           <t>3752210540</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:09:32</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44162.7149537037</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -22962,10 +22358,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:07:08</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44162.71328703704</v>
       </c>
       <c r="I312" t="n">
         <v>24</v>
@@ -23030,10 +22424,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:07:05</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44162.71325231482</v>
       </c>
       <c r="I313" t="n">
         <v>20</v>
@@ -23101,10 +22493,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:06:20</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44162.71273148148</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
@@ -23172,10 +22562,8 @@
           <t>3752193683</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:06:02</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44162.71252314815</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
@@ -23239,10 +22627,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:04:56</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44162.71175925926</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23314,10 +22700,8 @@
           <t>3752191087</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:03:44</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44162.71092592592</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -23390,10 +22774,8 @@
           <t>3752176870</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:00:10</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44162.70844907407</v>
       </c>
       <c r="I318" t="n">
         <v>1</v>
@@ -23461,10 +22843,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:00:05</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44162.70839120371</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -23540,10 +22920,8 @@
           <t>3752176773</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:00:04</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44162.70837962963</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
@@ -23615,10 +22993,8 @@
           <t>3752155439</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:59:34</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44162.7080324074</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -23690,10 +23066,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:58:52</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44162.7075462963</v>
       </c>
       <c r="I322" t="n">
         <v>21</v>
@@ -23765,10 +23139,8 @@
           <t>3752164824</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:58:13</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44162.7070949074</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -23832,10 +23204,8 @@
           <t>3752164181</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:57:37</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44162.70667824074</v>
       </c>
       <c r="I324" t="n">
         <v>7</v>
@@ -23903,10 +23273,8 @@
           <t>3752144660</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:57:23</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44162.7065162037</v>
       </c>
       <c r="I325" t="n">
         <v>1</v>
@@ -23978,10 +23346,8 @@
           <t>3752163732</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:57:11</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44162.70637731482</v>
       </c>
       <c r="I326" t="n">
         <v>1</v>
@@ -24041,10 +23407,8 @@
           <t>3752134831</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:57:06</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44162.70631944444</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -24116,10 +23480,8 @@
           <t>3752162055</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:55:34</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44162.70525462963</v>
       </c>
       <c r="I328" t="n">
         <v>1</v>
@@ -24191,10 +23553,8 @@
           <t>3752161020</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:54:31</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44162.70452546296</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -24266,10 +23626,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:52:09</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44162.70288194445</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -24333,10 +23691,8 @@
           <t>3752155439</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:51:13</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44162.7022337963</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -24404,10 +23760,8 @@
           <t>3752144660</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:50:26</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44162.70168981481</v>
       </c>
       <c r="I332" t="n">
         <v>4</v>
@@ -24475,10 +23829,8 @@
           <t>3752134831</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:48:27</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44162.7003125</v>
       </c>
       <c r="I333" t="n">
         <v>3</v>
@@ -24546,10 +23898,8 @@
           <t>3752133274</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:46:57</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44162.69927083333</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
@@ -24621,10 +23971,8 @@
           <t>3752130524</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:44:13</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44162.69737268519</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
@@ -24700,10 +24048,8 @@
           <t>3752119875</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:43:33</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44162.69690972222</v>
       </c>
       <c r="I336" t="n">
         <v>1</v>
@@ -24771,10 +24117,8 @@
           <t>3752123352</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:43:29</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44162.69686342592</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -24838,10 +24182,8 @@
           <t>3752125873</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:41:35</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44162.69554398148</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -24909,10 +24251,8 @@
           <t>3752121157</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:41:10</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44162.69525462963</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
@@ -24976,10 +24316,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:40:21</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44162.6946875</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25055,10 +24393,8 @@
           <t>3751855672</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:39:28</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44162.69407407408</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -25126,10 +24462,8 @@
           <t>3752108207</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:39:10</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44162.69386574074</v>
       </c>
       <c r="I342" t="n">
         <v>2</v>
@@ -25201,10 +24535,8 @@
           <t>3752108207</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:38:06</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44162.693125</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
@@ -25276,10 +24608,8 @@
           <t>3752104380</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:38:05</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44162.69311342593</v>
       </c>
       <c r="I344" t="n">
         <v>8</v>
@@ -25355,10 +24685,8 @@
           <t>3752108058</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:37:57</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44162.69302083334</v>
       </c>
       <c r="I345" t="n">
         <v>2</v>
@@ -25422,10 +24750,8 @@
           <t>3751878094</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:36:06</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44162.69173611111</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
@@ -25493,10 +24819,8 @@
           <t>3752101306</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:34:53</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44162.6908912037</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
@@ -25563,10 +24887,8 @@
           <t>3752094789</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:34:29</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44162.69061342593</v>
       </c>
       <c r="I348" t="n">
         <v>3</v>
@@ -25630,10 +24952,8 @@
           <t>3752097908</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:33:40</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44162.69004629629</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
@@ -25701,10 +25021,8 @@
           <t>3752048572</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:32:37</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44162.68931712963</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
@@ -25776,10 +25094,8 @@
           <t>3752087559</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:31:07</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44162.68827546296</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
@@ -25851,10 +25167,8 @@
           <t>3752095214</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:30:55</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44162.68813657408</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
@@ -25922,10 +25236,8 @@
           <t>3752090178</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:29:41</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44162.68728009259</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
@@ -26012,10 +25324,8 @@
           <t>3751913495</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:28:31</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44162.68646990741</v>
       </c>
       <c r="I354" t="n">
         <v>1</v>
@@ -26087,10 +25397,8 @@
           <t>3752082691</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:28:15</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44162.68628472222</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -26155,10 +25463,8 @@
           <t>3752081963</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:27:30</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44162.68576388889</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
@@ -26222,10 +25528,8 @@
           <t>3751886888</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:27:05</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44162.68547453704</v>
       </c>
       <c r="I357" t="n">
         <v>1</v>
@@ -26298,10 +25602,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:26:00</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44162.68472222222</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
@@ -26361,10 +25663,8 @@
           <t>3752071445</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:25:05</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44162.68408564815</v>
       </c>
       <c r="I359" t="n">
         <v>6</v>
@@ -26430,10 +25730,8 @@
           <t>3751988955</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:25:01</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44162.68403935185</v>
       </c>
       <c r="I360" t="n">
         <v>1</v>
@@ -26497,10 +25795,8 @@
           <t>3752070795</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:24:26</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44162.68363425926</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
@@ -26569,10 +25865,8 @@
           <t>3752068819</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:24:19</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44162.68355324074</v>
       </c>
       <c r="I362" t="n">
         <v>34</v>
@@ -26644,10 +25938,8 @@
           <t>3752039587</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:22:47</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44162.68248842593</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
@@ -26719,10 +26011,8 @@
           <t>3751972007</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:22:34</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44162.68233796296</v>
       </c>
       <c r="I364" t="n">
         <v>1</v>
@@ -26799,10 +26089,8 @@
           <t>3752063203</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:22:21</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44162.6821875</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
@@ -26866,10 +26154,8 @@
           <t>3752039587</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:22:12</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44162.68208333333</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
@@ -26947,10 +26233,8 @@
           <t>3752058089</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:21:36</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44162.68166666666</v>
       </c>
       <c r="I367" t="n">
         <v>12</v>
@@ -27014,10 +26298,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:21:21</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44162.68149305556</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
@@ -27085,10 +26367,8 @@
           <t>3752065919</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:21:13</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44162.68140046296</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
@@ -27152,10 +26432,8 @@
           <t>3752039587</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:21:13</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44162.68140046296</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
@@ -27227,10 +26505,8 @@
           <t>3752057571</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:21:05</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44162.68130787037</v>
       </c>
       <c r="I371" t="n">
         <v>19</v>
@@ -27307,10 +26583,8 @@
           <t>3752061725</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:20:48</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44162.68111111111</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
@@ -27378,10 +26652,8 @@
           <t>3752019101</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:20:42</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44162.68104166666</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
@@ -27453,10 +26725,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:19:51</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44162.68045138889</v>
       </c>
       <c r="I374" t="n">
         <v>1</v>
@@ -27524,10 +26794,8 @@
           <t>3751972007</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:19:10</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44162.67997685185</v>
       </c>
       <c r="I375" t="n">
         <v>5</v>
@@ -27599,10 +26867,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:18:49</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44162.6797337963</v>
       </c>
       <c r="I376" t="n">
         <v>1</v>
@@ -27666,10 +26932,8 @@
           <t>3752053660</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:18:42</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44162.67965277778</v>
       </c>
       <c r="I377" t="n">
         <v>1</v>
@@ -27733,10 +26997,8 @@
           <t>3752034564</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:18:33</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44162.67954861111</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
@@ -27813,10 +27075,8 @@
           <t>3752055028</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:18:21</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44162.67940972222</v>
       </c>
       <c r="I379" t="n">
         <v>5</v>
@@ -27888,10 +27148,8 @@
           <t>3752048572</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:17:26</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44162.67877314815</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
@@ -27963,10 +27221,8 @@
           <t>3751798969</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:17:17</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44162.67866898148</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
@@ -28042,10 +27298,8 @@
           <t>3752039587</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:15:43</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44162.67758101852</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
@@ -28113,10 +27367,8 @@
           <t>3752046062</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:14:44</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44162.67689814815</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
@@ -28184,10 +27436,8 @@
           <t>3752034564</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:14:37</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44162.67681712963</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
@@ -28255,10 +27505,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:14:27</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44162.67670138889</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
@@ -28322,10 +27570,8 @@
           <t>3752045829</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:14:27</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44162.67670138889</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
@@ -28391,10 +27637,8 @@
           <t>3751957734</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:13:47</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44162.67623842593</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
@@ -28458,10 +27702,8 @@
           <t>3752040661</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:13:27</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44162.67600694444</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
@@ -28537,10 +27779,8 @@
           <t>3752034564</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:13:07</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44162.67577546297</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
@@ -28617,10 +27857,8 @@
           <t>3752037769</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:12:01</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44162.67501157407</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
@@ -28696,10 +27934,8 @@
           <t>3752028943</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:11:29</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44162.6746412037</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
@@ -28775,10 +28011,8 @@
           <t>3752036952</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:11:07</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44162.67438657407</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
@@ -28854,10 +28088,8 @@
           <t>3752032316</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:10:47</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44162.67415509259</v>
       </c>
       <c r="I393" t="n">
         <v>4</v>
@@ -28929,10 +28161,8 @@
           <t>3752036540</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:10:39</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44162.6740625</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
@@ -28996,10 +28226,8 @@
           <t>3752032131</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:10:35</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44162.6740162037</v>
       </c>
       <c r="I395" t="n">
         <v>7</v>
@@ -29063,10 +28291,8 @@
           <t>3751860016</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:10:34</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44162.67400462963</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
@@ -29158,10 +28384,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:10:31</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44162.67396990741</v>
       </c>
       <c r="I397" t="n">
         <v>81</v>
@@ -29238,10 +28462,8 @@
           <t>3752036376</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:10:28</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44162.67393518519</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
@@ -29309,10 +28531,8 @@
           <t>3752028025</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:10:26</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44162.67391203704</v>
       </c>
       <c r="I399" t="n">
         <v>6</v>
@@ -29388,10 +28608,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:10:17</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44162.67380787037</v>
       </c>
       <c r="I400" t="n">
         <v>74</v>
@@ -29463,10 +28681,8 @@
           <t>3751953081</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:09:55</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44162.67355324074</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
@@ -29534,10 +28750,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:08:49</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44162.67278935185</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
@@ -29597,10 +28811,8 @@
           <t>3752014913</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:07:01</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44162.67153935185</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
@@ -29668,10 +28880,8 @@
           <t>3751951190</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:06:28</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44162.67115740741</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
@@ -29743,10 +28953,8 @@
           <t>3752012689</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:04:41</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44162.66991898148</v>
       </c>
       <c r="I405" t="n">
         <v>2</v>
@@ -29814,10 +29022,8 @@
           <t>3752012557</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:04:31</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44162.66980324074</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
@@ -29885,10 +29091,8 @@
           <t>3752020355</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:04:17</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44162.66964120371</v>
       </c>
       <c r="I407" t="n">
         <v>0</v>
@@ -29952,10 +29156,8 @@
           <t>3752004974</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:03:23</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44162.6690162037</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
@@ -30027,10 +29229,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:03:17</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44162.66894675926</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
@@ -30098,10 +29298,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:03:03</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44162.66878472222</v>
       </c>
       <c r="I410" t="n">
         <v>83</v>
@@ -30165,10 +29363,8 @@
           <t>3752004526</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:02:52</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44162.6686574074</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
@@ -30232,10 +29428,8 @@
           <t>3751789307</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:01:17</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44162.66755787037</v>
       </c>
       <c r="I412" t="n">
         <v>0</v>
@@ -30299,10 +29493,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:01:12</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44162.6675</v>
       </c>
       <c r="I413" t="n">
         <v>1</v>
@@ -30374,10 +29566,8 @@
           <t>3752007766</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:01:12</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44162.6675</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
@@ -30445,10 +29635,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:00:36</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44162.66708333333</v>
       </c>
       <c r="I415" t="n">
         <v>0</v>
@@ -30515,10 +29703,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:00:23</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44162.66693287037</v>
       </c>
       <c r="I416" t="n">
         <v>17</v>
@@ -30590,10 +29776,8 @@
           <t>3751822036</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:59:51</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44162.6665625</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
@@ -30653,10 +29837,8 @@
           <t>3752001596</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:59:29</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44162.66630787037</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
@@ -30724,10 +29906,8 @@
           <t>3752006109</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:59:15</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44162.66614583333</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
@@ -30799,10 +29979,8 @@
           <t>3752001310</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:59:10</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44162.66608796296</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
@@ -30866,10 +30044,8 @@
           <t>3752001301</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:59:09</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44162.66607638889</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
@@ -30942,10 +30118,8 @@
           <t>3751957734</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:58:58</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44162.66594907407</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
@@ -31022,10 +30196,8 @@
           <t>3752005116</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:58:55</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44162.66591435186</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
@@ -31089,10 +30261,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:58:21</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44162.66552083333</v>
       </c>
       <c r="I424" t="n">
         <v>1</v>
@@ -31165,10 +30335,8 @@
           <t>3752005304</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:58:18</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44162.66548611111</v>
       </c>
       <c r="I425" t="n">
         <v>4</v>
@@ -31244,10 +30412,8 @@
           <t>3752005116</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:58:03</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44162.6653125</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
@@ -31311,10 +30477,8 @@
           <t>3751989939</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:57:35</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44162.66498842592</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
@@ -31378,10 +30542,8 @@
           <t>3751996509</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:57:29</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44162.66491898148</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
@@ -31445,10 +30607,8 @@
           <t>3751993760</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:56:33</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44162.66427083333</v>
       </c>
       <c r="I429" t="n">
         <v>0</v>
@@ -31524,10 +30684,8 @@
           <t>3751988955</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:56:25</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44162.66417824074</v>
       </c>
       <c r="I430" t="n">
         <v>2</v>
@@ -31595,10 +30753,8 @@
           <t>3751973416</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:56:03</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44162.66392361111</v>
       </c>
       <c r="I431" t="n">
         <v>2</v>
@@ -31670,10 +30826,8 @@
           <t>3751798969</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:55:57</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44162.66385416667</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
@@ -31733,10 +30887,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:55:41</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44162.66366898148</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
@@ -31800,10 +30952,8 @@
           <t>3751789307</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:54:45</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44162.66302083333</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
@@ -31875,10 +31025,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:54:05</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44162.66255787037</v>
       </c>
       <c r="I435" t="n">
         <v>0</v>
@@ -31954,10 +31102,8 @@
           <t>3751991681</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:53:57</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44162.66246527778</v>
       </c>
       <c r="I436" t="n">
         <v>4</v>
@@ -32025,10 +31171,8 @@
           <t>3751795934</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:53:34</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44162.66219907408</v>
       </c>
       <c r="I437" t="n">
         <v>0</v>
@@ -32088,10 +31232,8 @@
           <t>3751991181</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:53:22</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44162.66206018518</v>
       </c>
       <c r="I438" t="n">
         <v>0</v>
@@ -32164,10 +31306,8 @@
           <t>3751822036</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:53:16</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44162.66199074074</v>
       </c>
       <c r="I439" t="n">
         <v>0</v>
@@ -32239,10 +31379,8 @@
           <t>3751973416</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:52:29</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44162.66144675926</v>
       </c>
       <c r="I440" t="n">
         <v>0</v>
@@ -32318,10 +31456,8 @@
           <t>3751957734</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:52:21</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44162.66135416667</v>
       </c>
       <c r="I441" t="n">
         <v>0</v>
@@ -32393,10 +31529,8 @@
           <t>3751822036</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:52:19</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44162.66133101852</v>
       </c>
       <c r="I442" t="n">
         <v>0</v>
@@ -32456,10 +31590,8 @@
           <t>3751981727</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:52:06</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44162.66118055556</v>
       </c>
       <c r="I443" t="n">
         <v>1</v>
@@ -32523,10 +31655,8 @@
           <t>3751974551</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:51:23</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44162.66068287037</v>
       </c>
       <c r="I444" t="n">
         <v>0</v>
@@ -32598,10 +31728,8 @@
           <t>3751980816</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:51:04</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44162.66046296297</v>
       </c>
       <c r="I445" t="n">
         <v>14</v>
@@ -32669,10 +31797,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:50:30</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44162.66006944444</v>
       </c>
       <c r="I446" t="n">
         <v>0</v>
@@ -32736,10 +31862,8 @@
           <t>3751937934</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:50:28</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44162.6600462963</v>
       </c>
       <c r="I447" t="n">
         <v>0</v>
@@ -32803,10 +31927,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:50:09</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44162.65982638889</v>
       </c>
       <c r="I448" t="n">
         <v>0</v>
@@ -32870,10 +31992,8 @@
           <t>3751973416</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:50:03</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44162.65975694444</v>
       </c>
       <c r="I449" t="n">
         <v>0</v>
@@ -32941,10 +32061,8 @@
           <t>3751953081</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:49:56</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44162.65967592593</v>
       </c>
       <c r="I450" t="n">
         <v>0</v>
@@ -33012,10 +32130,8 @@
           <t>3751973163</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:49:45</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44162.65954861111</v>
       </c>
       <c r="I451" t="n">
         <v>0</v>
@@ -33087,10 +32203,8 @@
           <t>3751972840</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:49:23</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44162.65929398148</v>
       </c>
       <c r="I452" t="n">
         <v>2</v>
@@ -33154,10 +32268,8 @@
           <t>3751977379</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:48:48</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44162.65888888889</v>
       </c>
       <c r="I453" t="n">
         <v>0</v>
@@ -33240,10 +32352,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:48:44</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44162.65884259259</v>
       </c>
       <c r="I454" t="n">
         <v>2</v>
@@ -33307,10 +32417,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:48:30</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44162.65868055556</v>
       </c>
       <c r="I455" t="n">
         <v>15</v>
@@ -33374,10 +32482,8 @@
           <t>3751972007</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:48:24</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44162.65861111111</v>
       </c>
       <c r="I456" t="n">
         <v>36</v>
@@ -33445,10 +32551,8 @@
           <t>3751976996</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:48:22</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44162.65858796296</v>
       </c>
       <c r="I457" t="n">
         <v>0</v>
@@ -33512,10 +32616,8 @@
           <t>3751971711</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:48:00</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44162.65833333333</v>
       </c>
       <c r="I458" t="n">
         <v>9</v>
@@ -33579,10 +32681,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:47:46</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44162.65817129629</v>
       </c>
       <c r="I459" t="n">
         <v>18</v>
@@ -33650,10 +32750,8 @@
           <t>3751971428</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:47:40</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44162.65810185186</v>
       </c>
       <c r="I460" t="n">
         <v>0</v>
@@ -33717,10 +32815,8 @@
           <t>3751971181</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:47:21</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44162.65788194445</v>
       </c>
       <c r="I461" t="n">
         <v>0</v>
@@ -33792,10 +32888,8 @@
           <t>3751897550</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:46:25</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44162.65723379629</v>
       </c>
       <c r="I462" t="n">
         <v>0</v>
@@ -33867,10 +32961,8 @@
           <t>3751975215</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:46:17</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44162.6571412037</v>
       </c>
       <c r="I463" t="n">
         <v>6</v>
@@ -33946,10 +33038,8 @@
           <t>3751953081</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:46:10</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44162.65706018519</v>
       </c>
       <c r="I464" t="n">
         <v>2</v>
@@ -34021,10 +33111,8 @@
           <t>3751963246</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:44:03</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44162.65559027778</v>
       </c>
       <c r="I465" t="n">
         <v>20</v>
@@ -34100,10 +33188,8 @@
           <t>3751855672</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:43:57</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44162.65552083333</v>
       </c>
       <c r="I466" t="n">
         <v>1</v>
@@ -34179,10 +33265,8 @@
           <t>3751958183</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:43:43</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44162.6553587963</v>
       </c>
       <c r="I467" t="n">
         <v>1</v>
@@ -34254,10 +33338,8 @@
           <t>3751911913</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:43:41</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44162.65533564815</v>
       </c>
       <c r="I468" t="n">
         <v>0</v>
@@ -34321,10 +33403,8 @@
           <t>3751957734</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:43:11</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44162.65498842593</v>
       </c>
       <c r="I469" t="n">
         <v>0</v>
@@ -34388,10 +33468,8 @@
           <t>3751878094</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:42:53</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44162.65478009259</v>
       </c>
       <c r="I470" t="n">
         <v>2</v>
@@ -34467,10 +33545,8 @@
           <t>3751953715</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:42:50</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44162.65474537037</v>
       </c>
       <c r="I471" t="n">
         <v>28</v>
@@ -34534,10 +33610,8 @@
           <t>3751827115</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:42:11</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44162.65429398148</v>
       </c>
       <c r="I472" t="n">
         <v>0</v>
@@ -34605,10 +33679,8 @@
           <t>3751953081</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:42:02</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44162.65418981481</v>
       </c>
       <c r="I473" t="n">
         <v>0</v>
@@ -34676,10 +33748,8 @@
           <t>3751960877</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:41:15</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44162.65364583334</v>
       </c>
       <c r="I474" t="n">
         <v>4</v>
@@ -34747,10 +33817,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:40:26</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44162.6530787037</v>
       </c>
       <c r="I475" t="n">
         <v>0</v>
@@ -34818,10 +33886,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:40:03</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44162.6528125</v>
       </c>
       <c r="I476" t="n">
         <v>0</v>
@@ -34893,10 +33959,8 @@
           <t>3751951190</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:39:50</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44162.65266203704</v>
       </c>
       <c r="I477" t="n">
         <v>10</v>
@@ -34968,10 +34032,8 @@
           <t>3751880328</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:39:05</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44162.6521412037</v>
       </c>
       <c r="I478" t="n">
         <v>0</v>
@@ -35035,10 +34097,8 @@
           <t>3751924014</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:38:50</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44162.6519675926</v>
       </c>
       <c r="I479" t="n">
         <v>0</v>
@@ -35106,10 +34166,8 @@
           <t>3751789307</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:38:15</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44162.6515625</v>
       </c>
       <c r="I480" t="n">
         <v>0</v>
@@ -35173,10 +34231,8 @@
           <t>3751939726</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:38:05</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44162.65144675926</v>
       </c>
       <c r="I481" t="n">
         <v>1</v>
@@ -35244,10 +34300,8 @@
           <t>3751943226</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:37:49</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44162.65126157407</v>
       </c>
       <c r="I482" t="n">
         <v>0</v>
@@ -35315,10 +34369,8 @@
           <t>3751939467</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:37:47</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44162.65123842593</v>
       </c>
       <c r="I483" t="n">
         <v>0</v>
@@ -35386,10 +34438,8 @@
           <t>3751929820</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:37:26</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44162.65099537037</v>
       </c>
       <c r="I484" t="n">
         <v>1</v>
@@ -35461,10 +34511,8 @@
           <t>3751803543</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:37:05</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44162.65075231482</v>
       </c>
       <c r="I485" t="n">
         <v>2</v>
@@ -35532,10 +34580,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:36:04</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44162.65004629629</v>
       </c>
       <c r="I486" t="n">
         <v>4</v>
@@ -35603,10 +34649,8 @@
           <t>3751937934</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:36:02</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44162.65002314815</v>
       </c>
       <c r="I487" t="n">
         <v>1</v>
@@ -35670,10 +34714,8 @@
           <t>3751946206</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:35:41</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44162.64978009259</v>
       </c>
       <c r="I488" t="n">
         <v>0</v>
@@ -35749,10 +34791,8 @@
           <t>3751936835</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:34:47</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44162.64915509259</v>
       </c>
       <c r="I489" t="n">
         <v>0</v>
@@ -35824,10 +34864,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:34:32</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44162.64898148148</v>
       </c>
       <c r="I490" t="n">
         <v>2</v>
@@ -35903,10 +34941,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:33:48</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44162.64847222222</v>
       </c>
       <c r="I491" t="n">
         <v>0</v>
@@ -35970,10 +35006,8 @@
           <t>3751929820</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:33:35</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44162.64832175926</v>
       </c>
       <c r="I492" t="n">
         <v>0</v>
@@ -36037,10 +35071,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:32:20</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44162.64745370371</v>
       </c>
       <c r="I493" t="n">
         <v>8</v>
@@ -36108,10 +35140,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:32:07</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44162.64730324074</v>
       </c>
       <c r="I494" t="n">
         <v>0</v>
@@ -36183,10 +35213,8 @@
           <t>3751928429</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:31:56</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44162.64717592593</v>
       </c>
       <c r="I495" t="n">
         <v>0</v>
@@ -36250,10 +35278,8 @@
           <t>3751924014</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:31:32</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44162.64689814814</v>
       </c>
       <c r="I496" t="n">
         <v>0</v>
@@ -36325,10 +35351,8 @@
           <t>3751932404</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:31:16</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44162.64671296296</v>
       </c>
       <c r="I497" t="n">
         <v>16</v>
@@ -36404,10 +35428,8 @@
           <t>3751855672</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:30:36</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44162.64625</v>
       </c>
       <c r="I498" t="n">
         <v>1</v>
@@ -36475,10 +35497,8 @@
           <t>3751878094</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:30:21</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44162.64607638889</v>
       </c>
       <c r="I499" t="n">
         <v>3</v>
@@ -36546,10 +35566,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:30:12</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44162.64597222222</v>
       </c>
       <c r="I500" t="n">
         <v>0</v>
@@ -36621,10 +35639,8 @@
           <t>3751931347</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:30:01</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44162.64584490741</v>
       </c>
       <c r="I501" t="n">
         <v>0</v>
@@ -36688,10 +35704,8 @@
           <t>3751890335</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:29:57</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44162.64579861111</v>
       </c>
       <c r="I502" t="n">
         <v>4</v>
@@ -36755,10 +35769,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:29:55</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44162.64577546297</v>
       </c>
       <c r="I503" t="n">
         <v>0</v>
@@ -36834,10 +35846,8 @@
           <t>3751926502</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:29:42</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44162.645625</v>
       </c>
       <c r="I504" t="n">
         <v>2</v>
@@ -36901,10 +35911,8 @@
           <t>3751922310</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:29:30</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44162.64548611111</v>
       </c>
       <c r="I505" t="n">
         <v>1</v>
@@ -36968,10 +35976,8 @@
           <t>3751878094</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:29:20</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44162.64537037037</v>
       </c>
       <c r="I506" t="n">
         <v>0</v>
@@ -37049,10 +36055,8 @@
           <t>3751921953</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:29:04</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44162.64518518518</v>
       </c>
       <c r="I507" t="n">
         <v>0</v>
@@ -37116,10 +36120,8 @@
           <t>3751911913</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:28:37</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44162.64487268519</v>
       </c>
       <c r="I508" t="n">
         <v>1</v>
@@ -37195,10 +36197,8 @@
           <t>3751921404</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:28:24</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44162.64472222222</v>
       </c>
       <c r="I509" t="n">
         <v>1</v>
@@ -37266,10 +36266,8 @@
           <t>3751925370</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:28:21</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44162.6446875</v>
       </c>
       <c r="I510" t="n">
         <v>0</v>
@@ -37333,10 +36331,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:28:20</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44162.64467592593</v>
       </c>
       <c r="I511" t="n">
         <v>15</v>
@@ -37404,10 +36400,8 @@
           <t>3751919749</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:28:11</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44162.64457175926</v>
       </c>
       <c r="I512" t="n">
         <v>1</v>
@@ -37471,10 +36465,8 @@
           <t>3751920953</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:27:50</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44162.6443287037</v>
       </c>
       <c r="I513" t="n">
         <v>0</v>
@@ -37546,10 +36538,8 @@
           <t>3751858360</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:26:38</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44162.64349537037</v>
       </c>
       <c r="I514" t="n">
         <v>3</v>
@@ -37617,10 +36607,8 @@
           <t>3751913495</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:26:10</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44162.64317129629</v>
       </c>
       <c r="I515" t="n">
         <v>1</v>
@@ -37684,10 +36672,8 @@
           <t>3751917670</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:25:48</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44162.64291666666</v>
       </c>
       <c r="I516" t="n">
         <v>0</v>
@@ -37751,10 +36737,8 @@
           <t>3751917587</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:25:41</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44162.64283564815</v>
       </c>
       <c r="I517" t="n">
         <v>0</v>
@@ -37830,10 +36814,8 @@
           <t>3751878094</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:25:39</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44162.6428125</v>
       </c>
       <c r="I518" t="n">
         <v>7</v>
@@ -37909,10 +36891,8 @@
           <t>3751909001</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:25:31</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44162.64271990741</v>
       </c>
       <c r="I519" t="n">
         <v>1</v>
@@ -37976,10 +36956,8 @@
           <t>3751908480</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:24:55</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44162.64230324074</v>
       </c>
       <c r="I520" t="n">
         <v>6</v>
@@ -38055,10 +37033,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:24:40</t>
-        </is>
+      <c r="H521" s="1" t="n">
+        <v>44162.64212962963</v>
       </c>
       <c r="I521" t="n">
         <v>0</v>
@@ -38125,10 +37101,8 @@
           <t>3751911913</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:24:17</t>
-        </is>
+      <c r="H522" s="1" t="n">
+        <v>44162.64186342592</v>
       </c>
       <c r="I522" t="n">
         <v>6</v>
@@ -38192,10 +37166,8 @@
           <t>3751907602</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:23:53</t>
-        </is>
+      <c r="H523" s="1" t="n">
+        <v>44162.64158564815</v>
       </c>
       <c r="I523" t="n">
         <v>0</v>
@@ -38271,10 +37243,8 @@
           <t>3751915656</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:23:26</t>
-        </is>
+      <c r="H524" s="1" t="n">
+        <v>44162.64127314815</v>
       </c>
       <c r="I524" t="n">
         <v>21</v>
@@ -38338,10 +37308,8 @@
           <t>3751906640</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:22:49</t>
-        </is>
+      <c r="H525" s="1" t="n">
+        <v>44162.64084490741</v>
       </c>
       <c r="I525" t="n">
         <v>0</v>
@@ -38417,10 +37385,8 @@
           <t>3751855672</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:22:46</t>
-        </is>
+      <c r="H526" s="1" t="n">
+        <v>44162.64081018518</v>
       </c>
       <c r="I526" t="n">
         <v>0</v>
@@ -38496,10 +37462,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:22:43</t>
-        </is>
+      <c r="H527" s="1" t="n">
+        <v>44162.64077546296</v>
       </c>
       <c r="I527" t="n">
         <v>0</v>
@@ -38563,10 +37527,8 @@
           <t>3751897550</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:21:17</t>
-        </is>
+      <c r="H528" s="1" t="n">
+        <v>44162.63978009259</v>
       </c>
       <c r="I528" t="n">
         <v>0</v>
@@ -38642,10 +37604,8 @@
           <t>3751903734</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:21:14</t>
-        </is>
+      <c r="H529" s="1" t="n">
+        <v>44162.63974537037</v>
       </c>
       <c r="I529" t="n">
         <v>0</v>
@@ -38709,10 +37669,8 @@
           <t>3751905092</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:20:57</t>
-        </is>
+      <c r="H530" s="1" t="n">
+        <v>44162.63954861111</v>
       </c>
       <c r="I530" t="n">
         <v>0</v>
@@ -38776,10 +37734,8 @@
           <t>3751894901</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:20:43</t>
-        </is>
+      <c r="H531" s="1" t="n">
+        <v>44162.63938657408</v>
       </c>
       <c r="I531" t="n">
         <v>0</v>
@@ -38847,10 +37803,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:20:40</t>
-        </is>
+      <c r="H532" s="1" t="n">
+        <v>44162.63935185185</v>
       </c>
       <c r="I532" t="n">
         <v>0</v>
@@ -38914,10 +37868,8 @@
           <t>3751903204</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:20:38</t>
-        </is>
+      <c r="H533" s="1" t="n">
+        <v>44162.63932870371</v>
       </c>
       <c r="I533" t="n">
         <v>0</v>
@@ -38981,10 +37933,8 @@
           <t>3751897550</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:20:21</t>
-        </is>
+      <c r="H534" s="1" t="n">
+        <v>44162.63913194444</v>
       </c>
       <c r="I534" t="n">
         <v>0</v>
@@ -39052,10 +38002,8 @@
           <t>3751894576</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:20:19</t>
-        </is>
+      <c r="H535" s="1" t="n">
+        <v>44162.6391087963</v>
       </c>
       <c r="I535" t="n">
         <v>0</v>
@@ -39119,10 +38067,8 @@
           <t>3751811800</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:20:18</t>
-        </is>
+      <c r="H536" s="1" t="n">
+        <v>44162.63909722222</v>
       </c>
       <c r="I536" t="n">
         <v>0</v>
@@ -39190,10 +38136,8 @@
           <t>3751894312</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:20:00</t>
-        </is>
+      <c r="H537" s="1" t="n">
+        <v>44162.63888888889</v>
       </c>
       <c r="I537" t="n">
         <v>0</v>
@@ -39261,10 +38205,8 @@
           <t>3751897550</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:19:58</t>
-        </is>
+      <c r="H538" s="1" t="n">
+        <v>44162.63886574074</v>
       </c>
       <c r="I538" t="n">
         <v>0</v>
@@ -39343,10 +38285,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:19:35</t>
-        </is>
+      <c r="H539" s="1" t="n">
+        <v>44162.63859953704</v>
       </c>
       <c r="I539" t="n">
         <v>8</v>
@@ -39410,10 +38350,8 @@
           <t>3751897550</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:19:31</t>
-        </is>
+      <c r="H540" s="1" t="n">
+        <v>44162.63855324074</v>
       </c>
       <c r="I540" t="n">
         <v>0</v>
@@ -39489,10 +38427,8 @@
           <t>3751897550</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:18:51</t>
-        </is>
+      <c r="H541" s="1" t="n">
+        <v>44162.63809027777</v>
       </c>
       <c r="I541" t="n">
         <v>0</v>
@@ -39560,10 +38496,8 @@
           <t>3751893085</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:18:29</t>
-        </is>
+      <c r="H542" s="1" t="n">
+        <v>44162.63783564815</v>
       </c>
       <c r="I542" t="n">
         <v>0</v>
@@ -39627,10 +38561,8 @@
           <t>3751865161</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:17:50</t>
-        </is>
+      <c r="H543" s="1" t="n">
+        <v>44162.63738425926</v>
       </c>
       <c r="I543" t="n">
         <v>0</v>
@@ -39694,10 +38626,8 @@
           <t>3751803543</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:17:20</t>
-        </is>
+      <c r="H544" s="1" t="n">
+        <v>44162.63703703704</v>
       </c>
       <c r="I544" t="n">
         <v>2</v>
@@ -39765,10 +38695,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:16:56</t>
-        </is>
+      <c r="H545" s="1" t="n">
+        <v>44162.63675925926</v>
       </c>
       <c r="I545" t="n">
         <v>0</v>
@@ -39832,10 +38760,8 @@
           <t>3751886888</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:16:45</t>
-        </is>
+      <c r="H546" s="1" t="n">
+        <v>44162.63663194444</v>
       </c>
       <c r="I546" t="n">
         <v>0</v>
@@ -39911,10 +38837,8 @@
           <t>3751798969</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:16:43</t>
-        </is>
+      <c r="H547" s="1" t="n">
+        <v>44162.6366087963</v>
       </c>
       <c r="I547" t="n">
         <v>2</v>
@@ -40006,10 +38930,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:16:19</t>
-        </is>
+      <c r="H548" s="1" t="n">
+        <v>44162.63633101852</v>
       </c>
       <c r="I548" t="n">
         <v>13</v>
@@ -40077,10 +38999,8 @@
           <t>3751889173</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:16:01</t>
-        </is>
+      <c r="H549" s="1" t="n">
+        <v>44162.63612268519</v>
       </c>
       <c r="I549" t="n">
         <v>0</v>
@@ -40148,10 +39068,8 @@
           <t>3751888058</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:15:59</t>
-        </is>
+      <c r="H550" s="1" t="n">
+        <v>44162.63609953703</v>
       </c>
       <c r="I550" t="n">
         <v>0</v>
@@ -40227,10 +39145,8 @@
           <t>3751867225</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:15:38</t>
-        </is>
+      <c r="H551" s="1" t="n">
+        <v>44162.63585648148</v>
       </c>
       <c r="I551" t="n">
         <v>0</v>
@@ -40294,10 +39210,8 @@
           <t>3751890557</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:15:24</t>
-        </is>
+      <c r="H552" s="1" t="n">
+        <v>44162.63569444444</v>
       </c>
       <c r="I552" t="n">
         <v>3</v>
@@ -40361,10 +39275,8 @@
           <t>3751890335</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:15:08</t>
-        </is>
+      <c r="H553" s="1" t="n">
+        <v>44162.63550925926</v>
       </c>
       <c r="I553" t="n">
         <v>2</v>
@@ -40436,10 +39348,8 @@
           <t>3751888271</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:14:55</t>
-        </is>
+      <c r="H554" s="1" t="n">
+        <v>44162.63535879629</v>
       </c>
       <c r="I554" t="n">
         <v>0</v>
@@ -40507,10 +39417,8 @@
           <t>3751888058</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:14:40</t>
-        </is>
+      <c r="H555" s="1" t="n">
+        <v>44162.63518518519</v>
       </c>
       <c r="I555" t="n">
         <v>2</v>
@@ -40586,10 +39494,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:14:39</t>
-        </is>
+      <c r="H556" s="1" t="n">
+        <v>44162.63517361111</v>
       </c>
       <c r="I556" t="n">
         <v>0</v>
@@ -40665,10 +39571,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:14:38</t>
-        </is>
+      <c r="H557" s="1" t="n">
+        <v>44162.63516203704</v>
       </c>
       <c r="I557" t="n">
         <v>3</v>
@@ -40740,10 +39644,8 @@
           <t>3751879904</t>
         </is>
       </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:14:32</t>
-        </is>
+      <c r="H558" s="1" t="n">
+        <v>44162.63509259259</v>
       </c>
       <c r="I558" t="n">
         <v>1</v>
@@ -40811,10 +39713,8 @@
           <t>3751879546</t>
         </is>
       </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:14:04</t>
-        </is>
+      <c r="H559" s="1" t="n">
+        <v>44162.63476851852</v>
       </c>
       <c r="I559" t="n">
         <v>1</v>
@@ -40882,10 +39782,8 @@
           <t>3751887464</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:13:56</t>
-        </is>
+      <c r="H560" s="1" t="n">
+        <v>44162.63467592592</v>
       </c>
       <c r="I560" t="n">
         <v>5</v>
@@ -40945,10 +39843,8 @@
           <t>3751886888</t>
         </is>
       </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:13:15</t>
-        </is>
+      <c r="H561" s="1" t="n">
+        <v>44162.63420138889</v>
       </c>
       <c r="I561" t="n">
         <v>12</v>
@@ -41020,10 +39916,8 @@
           <t>3751886779</t>
         </is>
       </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:13:07</t>
-        </is>
+      <c r="H562" s="1" t="n">
+        <v>44162.63410879629</v>
       </c>
       <c r="I562" t="n">
         <v>2</v>
@@ -41091,10 +39985,8 @@
           <t>3751794012</t>
         </is>
       </c>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:13:04</t>
-        </is>
+      <c r="H563" s="1" t="n">
+        <v>44162.63407407407</v>
       </c>
       <c r="I563" t="n">
         <v>0</v>
@@ -41166,10 +40058,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:12:42</t>
-        </is>
+      <c r="H564" s="1" t="n">
+        <v>44162.63381944445</v>
       </c>
       <c r="I564" t="n">
         <v>0</v>
@@ -41233,10 +40123,8 @@
           <t>3751878373</t>
         </is>
       </c>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:12:32</t>
-        </is>
+      <c r="H565" s="1" t="n">
+        <v>44162.6337037037</v>
       </c>
       <c r="I565" t="n">
         <v>0</v>
@@ -41304,10 +40192,8 @@
           <t>3751886112</t>
         </is>
       </c>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:12:20</t>
-        </is>
+      <c r="H566" s="1" t="n">
+        <v>44162.63356481482</v>
       </c>
       <c r="I566" t="n">
         <v>2</v>
@@ -41375,10 +40261,8 @@
           <t>3751858360</t>
         </is>
       </c>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:12:11</t>
-        </is>
+      <c r="H567" s="1" t="n">
+        <v>44162.63346064815</v>
       </c>
       <c r="I567" t="n">
         <v>1</v>
@@ -41446,10 +40330,8 @@
           <t>3751878094</t>
         </is>
       </c>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:12:08</t>
-        </is>
+      <c r="H568" s="1" t="n">
+        <v>44162.63342592592</v>
       </c>
       <c r="I568" t="n">
         <v>4</v>
@@ -41517,10 +40399,8 @@
           <t>3751794012</t>
         </is>
       </c>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:11:53</t>
-        </is>
+      <c r="H569" s="1" t="n">
+        <v>44162.63325231482</v>
       </c>
       <c r="I569" t="n">
         <v>0</v>
@@ -41592,10 +40472,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:11:52</t>
-        </is>
+      <c r="H570" s="1" t="n">
+        <v>44162.63324074074</v>
       </c>
       <c r="I570" t="n">
         <v>37</v>
@@ -41659,10 +40537,8 @@
           <t>3751881703</t>
         </is>
       </c>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:11:26</t>
-        </is>
+      <c r="H571" s="1" t="n">
+        <v>44162.63293981482</v>
       </c>
       <c r="I571" t="n">
         <v>0</v>
@@ -41738,10 +40614,8 @@
           <t>3751885188</t>
         </is>
       </c>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:11:17</t>
-        </is>
+      <c r="H572" s="1" t="n">
+        <v>44162.63283564815</v>
       </c>
       <c r="I572" t="n">
         <v>25</v>
@@ -41817,10 +40691,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:10:50</t>
-        </is>
+      <c r="H573" s="1" t="n">
+        <v>44162.63252314815</v>
       </c>
       <c r="I573" t="n">
         <v>0</v>
@@ -41884,10 +40756,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:10:50</t>
-        </is>
+      <c r="H574" s="1" t="n">
+        <v>44162.63252314815</v>
       </c>
       <c r="I574" t="n">
         <v>1</v>
@@ -41959,10 +40829,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:10:32</t>
-        </is>
+      <c r="H575" s="1" t="n">
+        <v>44162.63231481481</v>
       </c>
       <c r="I575" t="n">
         <v>1</v>
@@ -42039,10 +40907,8 @@
           <t>3751874566</t>
         </is>
       </c>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:10:32</t>
-        </is>
+      <c r="H576" s="1" t="n">
+        <v>44162.63231481481</v>
       </c>
       <c r="I576" t="n">
         <v>1</v>
@@ -42118,10 +40984,8 @@
           <t>3751874176</t>
         </is>
       </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:10:03</t>
-        </is>
+      <c r="H577" s="1" t="n">
+        <v>44162.63197916667</v>
       </c>
       <c r="I577" t="n">
         <v>2</v>
@@ -42193,10 +41057,8 @@
           <t>3751880487</t>
         </is>
       </c>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:10:01</t>
-        </is>
+      <c r="H578" s="1" t="n">
+        <v>44162.63195601852</v>
       </c>
       <c r="I578" t="n">
         <v>0</v>
@@ -42264,10 +41126,8 @@
           <t>3751858360</t>
         </is>
       </c>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:09:51</t>
-        </is>
+      <c r="H579" s="1" t="n">
+        <v>44162.63184027778</v>
       </c>
       <c r="I579" t="n">
         <v>3</v>
@@ -42331,10 +41191,8 @@
           <t>3751880328</t>
         </is>
       </c>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:09:49</t>
-        </is>
+      <c r="H580" s="1" t="n">
+        <v>44162.63181712963</v>
       </c>
       <c r="I580" t="n">
         <v>0</v>
@@ -42406,10 +41264,8 @@
           <t>3751794012</t>
         </is>
       </c>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:08:41</t>
-        </is>
+      <c r="H581" s="1" t="n">
+        <v>44162.63103009259</v>
       </c>
       <c r="I581" t="n">
         <v>0</v>
@@ -42481,10 +41337,8 @@
           <t>3751869284</t>
         </is>
       </c>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:08:33</t>
-        </is>
+      <c r="H582" s="1" t="n">
+        <v>44162.6309375</v>
       </c>
       <c r="I582" t="n">
         <v>6</v>
@@ -42552,10 +41406,8 @@
           <t>3751857512</t>
         </is>
       </c>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:06:47</t>
-        </is>
+      <c r="H583" s="1" t="n">
+        <v>44162.62971064815</v>
       </c>
       <c r="I583" t="n">
         <v>2</v>
@@ -42646,10 +41498,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:06:30</t>
-        </is>
+      <c r="H584" s="1" t="n">
+        <v>44162.62951388889</v>
       </c>
       <c r="I584" t="n">
         <v>8</v>
@@ -42729,10 +41579,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:06:23</t>
-        </is>
+      <c r="H585" s="1" t="n">
+        <v>44162.62943287037</v>
       </c>
       <c r="I585" t="n">
         <v>3</v>
@@ -42800,10 +41648,8 @@
           <t>3751867225</t>
         </is>
       </c>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:06:04</t>
-        </is>
+      <c r="H586" s="1" t="n">
+        <v>44162.62921296297</v>
       </c>
       <c r="I586" t="n">
         <v>1</v>
@@ -42879,10 +41725,8 @@
           <t>3751870514</t>
         </is>
       </c>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:05:55</t>
-        </is>
+      <c r="H587" s="1" t="n">
+        <v>44162.6291087963</v>
       </c>
       <c r="I587" t="n">
         <v>0</v>
@@ -42950,10 +41794,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:05:30</t>
-        </is>
+      <c r="H588" s="1" t="n">
+        <v>44162.62881944444</v>
       </c>
       <c r="I588" t="n">
         <v>15</v>
@@ -43021,10 +41863,8 @@
           <t>3751870008</t>
         </is>
       </c>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:05:20</t>
-        </is>
+      <c r="H589" s="1" t="n">
+        <v>44162.6287037037</v>
       </c>
       <c r="I589" t="n">
         <v>10</v>
@@ -43096,10 +41936,8 @@
           <t>3751858360</t>
         </is>
       </c>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:04:58</t>
-        </is>
+      <c r="H590" s="1" t="n">
+        <v>44162.62844907407</v>
       </c>
       <c r="I590" t="n">
         <v>11</v>
@@ -43175,10 +42013,8 @@
           <t>3751844342</t>
         </is>
       </c>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:04:48</t>
-        </is>
+      <c r="H591" s="1" t="n">
+        <v>44162.62833333333</v>
       </c>
       <c r="I591" t="n">
         <v>0</v>
@@ -43254,10 +42090,8 @@
           <t>3751865161</t>
         </is>
       </c>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:04:47</t>
-        </is>
+      <c r="H592" s="1" t="n">
+        <v>44162.62832175926</v>
       </c>
       <c r="I592" t="n">
         <v>0</v>
@@ -43329,10 +42163,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:04:03</t>
-        </is>
+      <c r="H593" s="1" t="n">
+        <v>44162.6278125</v>
       </c>
       <c r="I593" t="n">
         <v>0</v>
@@ -43396,10 +42228,8 @@
           <t>3751858922</t>
         </is>
       </c>
-      <c r="H594" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:04:03</t>
-        </is>
+      <c r="H594" s="1" t="n">
+        <v>44162.6278125</v>
       </c>
       <c r="I594" t="n">
         <v>0</v>
@@ -43471,10 +42301,8 @@
           <t>3751857512</t>
         </is>
       </c>
-      <c r="H595" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:03:42</t>
-        </is>
+      <c r="H595" s="1" t="n">
+        <v>44162.62756944444</v>
       </c>
       <c r="I595" t="n">
         <v>1</v>
@@ -43550,10 +42378,8 @@
           <t>3751858318</t>
         </is>
       </c>
-      <c r="H596" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:03:22</t>
-        </is>
+      <c r="H596" s="1" t="n">
+        <v>44162.62733796296</v>
       </c>
       <c r="I596" t="n">
         <v>40</v>
@@ -43622,10 +42448,8 @@
           <t>3751865161</t>
         </is>
       </c>
-      <c r="H597" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:03:21</t>
-        </is>
+      <c r="H597" s="1" t="n">
+        <v>44162.62732638889</v>
       </c>
       <c r="I597" t="n">
         <v>9</v>
@@ -43701,10 +42525,8 @@
           <t>3751858238</t>
         </is>
       </c>
-      <c r="H598" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:03:16</t>
-        </is>
+      <c r="H598" s="1" t="n">
+        <v>44162.62726851852</v>
       </c>
       <c r="I598" t="n">
         <v>0</v>
@@ -43795,10 +42617,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H599" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:02:57</t>
-        </is>
+      <c r="H599" s="1" t="n">
+        <v>44162.62704861111</v>
       </c>
       <c r="I599" t="n">
         <v>0</v>
@@ -43890,10 +42710,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H600" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:02:52</t>
-        </is>
+      <c r="H600" s="1" t="n">
+        <v>44162.62699074074</v>
       </c>
       <c r="I600" t="n">
         <v>2</v>
@@ -43965,10 +42783,8 @@
           <t>3751794012</t>
         </is>
       </c>
-      <c r="H601" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:02:50</t>
-        </is>
+      <c r="H601" s="1" t="n">
+        <v>44162.62696759259</v>
       </c>
       <c r="I601" t="n">
         <v>0</v>
@@ -44036,10 +42852,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H602" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:02:34</t>
-        </is>
+      <c r="H602" s="1" t="n">
+        <v>44162.62678240741</v>
       </c>
       <c r="I602" t="n">
         <v>5</v>
@@ -44107,10 +42921,8 @@
           <t>3751857640</t>
         </is>
       </c>
-      <c r="H603" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:02:34</t>
-        </is>
+      <c r="H603" s="1" t="n">
+        <v>44162.62678240741</v>
       </c>
       <c r="I603" t="n">
         <v>1</v>
@@ -44193,10 +43005,8 @@
           <t>3751857512</t>
         </is>
       </c>
-      <c r="H604" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:02:25</t>
-        </is>
+      <c r="H604" s="1" t="n">
+        <v>44162.62667824074</v>
       </c>
       <c r="I604" t="n">
         <v>10</v>
@@ -44272,10 +43082,8 @@
           <t>3751844342</t>
         </is>
       </c>
-      <c r="H605" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:02:08</t>
-        </is>
+      <c r="H605" s="1" t="n">
+        <v>44162.62648148148</v>
       </c>
       <c r="I605" t="n">
         <v>0</v>
@@ -44351,10 +43159,8 @@
           <t>3751860016</t>
         </is>
       </c>
-      <c r="H606" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:02:00</t>
-        </is>
+      <c r="H606" s="1" t="n">
+        <v>44162.62638888889</v>
       </c>
       <c r="I606" t="n">
         <v>1</v>
@@ -44424,10 +43230,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H607" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:01:37</t>
-        </is>
+      <c r="H607" s="1" t="n">
+        <v>44162.62612268519</v>
       </c>
       <c r="I607" t="n">
         <v>1</v>
@@ -44503,10 +43307,8 @@
           <t>3751849483</t>
         </is>
       </c>
-      <c r="H608" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:01:23</t>
-        </is>
+      <c r="H608" s="1" t="n">
+        <v>44162.62596064815</v>
       </c>
       <c r="I608" t="n">
         <v>0</v>
@@ -44574,10 +43376,8 @@
           <t>3751794012</t>
         </is>
       </c>
-      <c r="H609" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:01:04</t>
-        </is>
+      <c r="H609" s="1" t="n">
+        <v>44162.62574074074</v>
       </c>
       <c r="I609" t="n">
         <v>0</v>
@@ -44645,10 +43445,8 @@
           <t>3751849212</t>
         </is>
       </c>
-      <c r="H610" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:01:02</t>
-        </is>
+      <c r="H610" s="1" t="n">
+        <v>44162.62571759259</v>
       </c>
       <c r="I610" t="n">
         <v>1</v>
@@ -44724,10 +43522,8 @@
           <t>3751848988</t>
         </is>
       </c>
-      <c r="H611" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:00:48</t>
-        </is>
+      <c r="H611" s="1" t="n">
+        <v>44162.62555555555</v>
       </c>
       <c r="I611" t="n">
         <v>15</v>
@@ -44791,10 +43587,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H612" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:00:33</t>
-        </is>
+      <c r="H612" s="1" t="n">
+        <v>44162.62538194445</v>
       </c>
       <c r="I612" t="n">
         <v>0</v>
@@ -44866,10 +43660,8 @@
           <t>3751795934</t>
         </is>
       </c>
-      <c r="H613" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:00:30</t>
-        </is>
+      <c r="H613" s="1" t="n">
+        <v>44162.62534722222</v>
       </c>
       <c r="I613" t="n">
         <v>7</v>
@@ -44945,10 +43737,8 @@
           <t>3751855672</t>
         </is>
       </c>
-      <c r="H614" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:00:18</t>
-        </is>
+      <c r="H614" s="1" t="n">
+        <v>44162.62520833333</v>
       </c>
       <c r="I614" t="n">
         <v>34</v>
@@ -45032,10 +43822,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H615" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:00:05</t>
-        </is>
+      <c r="H615" s="1" t="n">
+        <v>44162.62505787037</v>
       </c>
       <c r="I615" t="n">
         <v>3</v>
@@ -45111,10 +43899,8 @@
           <t>3751794012</t>
         </is>
       </c>
-      <c r="H616" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:59:37</t>
-        </is>
+      <c r="H616" s="1" t="n">
+        <v>44162.6247337963</v>
       </c>
       <c r="I616" t="n">
         <v>0</v>
@@ -45186,10 +43972,8 @@
           <t>3751852180</t>
         </is>
       </c>
-      <c r="H617" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:59:26</t>
-        </is>
+      <c r="H617" s="1" t="n">
+        <v>44162.62460648148</v>
       </c>
       <c r="I617" t="n">
         <v>4</v>
@@ -45257,10 +44041,8 @@
           <t>3751847876</t>
         </is>
       </c>
-      <c r="H618" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:59:26</t>
-        </is>
+      <c r="H618" s="1" t="n">
+        <v>44162.62460648148</v>
       </c>
       <c r="I618" t="n">
         <v>10</v>
@@ -45332,10 +44114,8 @@
           <t>3751847705</t>
         </is>
       </c>
-      <c r="H619" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:59:12</t>
-        </is>
+      <c r="H619" s="1" t="n">
+        <v>44162.62444444445</v>
       </c>
       <c r="I619" t="n">
         <v>1</v>
@@ -45411,10 +44191,8 @@
           <t>3751827115</t>
         </is>
       </c>
-      <c r="H620" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:59:01</t>
-        </is>
+      <c r="H620" s="1" t="n">
+        <v>44162.62431712963</v>
       </c>
       <c r="I620" t="n">
         <v>2</v>
@@ -45478,10 +44256,8 @@
           <t>3751795934</t>
         </is>
       </c>
-      <c r="H621" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:58:59</t>
-        </is>
+      <c r="H621" s="1" t="n">
+        <v>44162.62429398148</v>
       </c>
       <c r="I621" t="n">
         <v>147</v>
@@ -45545,10 +44321,8 @@
           <t>3751831498</t>
         </is>
       </c>
-      <c r="H622" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:58:56</t>
-        </is>
+      <c r="H622" s="1" t="n">
+        <v>44162.62425925926</v>
       </c>
       <c r="I622" t="n">
         <v>0</v>
@@ -45616,10 +44390,8 @@
           <t>3751851749</t>
         </is>
       </c>
-      <c r="H623" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:58:50</t>
-        </is>
+      <c r="H623" s="1" t="n">
+        <v>44162.62418981481</v>
       </c>
       <c r="I623" t="n">
         <v>9</v>
@@ -45687,10 +44459,8 @@
           <t>3751794012</t>
         </is>
       </c>
-      <c r="H624" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:58:46</t>
-        </is>
+      <c r="H624" s="1" t="n">
+        <v>44162.62414351852</v>
       </c>
       <c r="I624" t="n">
         <v>1</v>
@@ -45762,10 +44532,8 @@
           <t>3751844342</t>
         </is>
       </c>
-      <c r="H625" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:58:41</t>
-        </is>
+      <c r="H625" s="1" t="n">
+        <v>44162.62408564815</v>
       </c>
       <c r="I625" t="n">
         <v>0</v>
@@ -45841,10 +44609,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H626" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:58:34</t>
-        </is>
+      <c r="H626" s="1" t="n">
+        <v>44162.62400462963</v>
       </c>
       <c r="I626" t="n">
         <v>30</v>
@@ -45920,10 +44686,8 @@
           <t>3751851268</t>
         </is>
       </c>
-      <c r="H627" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:58:15</t>
-        </is>
+      <c r="H627" s="1" t="n">
+        <v>44162.62378472222</v>
       </c>
       <c r="I627" t="n">
         <v>4</v>
@@ -45995,10 +44759,8 @@
           <t>3751843785</t>
         </is>
       </c>
-      <c r="H628" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:58:00</t>
-        </is>
+      <c r="H628" s="1" t="n">
+        <v>44162.62361111111</v>
       </c>
       <c r="I628" t="n">
         <v>0</v>
@@ -46070,10 +44832,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H629" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:57:21</t>
-        </is>
+      <c r="H629" s="1" t="n">
+        <v>44162.62315972222</v>
       </c>
       <c r="I629" t="n">
         <v>18</v>
@@ -46149,10 +44909,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H630" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:56:54</t>
-        </is>
+      <c r="H630" s="1" t="n">
+        <v>44162.62284722222</v>
       </c>
       <c r="I630" t="n">
         <v>0</v>
@@ -46216,10 +44974,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H631" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:56:54</t>
-        </is>
+      <c r="H631" s="1" t="n">
+        <v>44162.62284722222</v>
       </c>
       <c r="I631" t="n">
         <v>0</v>
@@ -46287,10 +45043,8 @@
           <t>3751850041</t>
         </is>
       </c>
-      <c r="H632" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:56:39</t>
-        </is>
+      <c r="H632" s="1" t="n">
+        <v>44162.62267361111</v>
       </c>
       <c r="I632" t="n">
         <v>38</v>
@@ -46358,10 +45112,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H633" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:56:35</t>
-        </is>
+      <c r="H633" s="1" t="n">
+        <v>44162.62262731481</v>
       </c>
       <c r="I633" t="n">
         <v>0</v>
@@ -46437,10 +45189,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H634" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:56:31</t>
-        </is>
+      <c r="H634" s="1" t="n">
+        <v>44162.62258101852</v>
       </c>
       <c r="I634" t="n">
         <v>0</v>
@@ -46516,10 +45266,8 @@
           <t>3751794012</t>
         </is>
       </c>
-      <c r="H635" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:56:26</t>
-        </is>
+      <c r="H635" s="1" t="n">
+        <v>44162.62252314815</v>
       </c>
       <c r="I635" t="n">
         <v>2</v>
@@ -46606,10 +45354,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H636" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:56:11</t>
-        </is>
+      <c r="H636" s="1" t="n">
+        <v>44162.62234953704</v>
       </c>
       <c r="I636" t="n">
         <v>0</v>
@@ -46681,10 +45427,8 @@
           <t>3751842111</t>
         </is>
       </c>
-      <c r="H637" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:55:56</t>
-        </is>
+      <c r="H637" s="1" t="n">
+        <v>44162.62217592593</v>
       </c>
       <c r="I637" t="n">
         <v>0</v>
@@ -46756,10 +45500,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H638" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:55:48</t>
-        </is>
+      <c r="H638" s="1" t="n">
+        <v>44162.62208333334</v>
       </c>
       <c r="I638" t="n">
         <v>6</v>
@@ -46850,10 +45592,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H639" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:55:40</t>
-        </is>
+      <c r="H639" s="1" t="n">
+        <v>44162.62199074074</v>
       </c>
       <c r="I639" t="n">
         <v>2</v>
@@ -46921,10 +45661,8 @@
           <t>3751841857</t>
         </is>
       </c>
-      <c r="H640" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:55:36</t>
-        </is>
+      <c r="H640" s="1" t="n">
+        <v>44162.62194444444</v>
       </c>
       <c r="I640" t="n">
         <v>3</v>
@@ -46998,10 +45736,8 @@
           <t>3751822036</t>
         </is>
       </c>
-      <c r="H641" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:55:25</t>
-        </is>
+      <c r="H641" s="1" t="n">
+        <v>44162.62181712963</v>
       </c>
       <c r="I641" t="n">
         <v>0</v>
@@ -47073,10 +45809,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H642" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:55:09</t>
-        </is>
+      <c r="H642" s="1" t="n">
+        <v>44162.62163194444</v>
       </c>
       <c r="I642" t="n">
         <v>213</v>
@@ -47140,10 +45874,8 @@
           <t>3751827115</t>
         </is>
       </c>
-      <c r="H643" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:55:00</t>
-        </is>
+      <c r="H643" s="1" t="n">
+        <v>44162.62152777778</v>
       </c>
       <c r="I643" t="n">
         <v>1</v>
@@ -47219,10 +45951,8 @@
           <t>3751838658</t>
         </is>
       </c>
-      <c r="H644" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:54:45</t>
-        </is>
+      <c r="H644" s="1" t="n">
+        <v>44162.62135416667</v>
       </c>
       <c r="I644" t="n">
         <v>44</v>
@@ -47298,10 +46028,8 @@
           <t>3751840941</t>
         </is>
       </c>
-      <c r="H645" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:54:26</t>
-        </is>
+      <c r="H645" s="1" t="n">
+        <v>44162.62113425926</v>
       </c>
       <c r="I645" t="n">
         <v>36</v>
@@ -47377,10 +46105,8 @@
           <t>3751827115</t>
         </is>
       </c>
-      <c r="H646" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:53:47</t>
-        </is>
+      <c r="H646" s="1" t="n">
+        <v>44162.62068287037</v>
       </c>
       <c r="I646" t="n">
         <v>1</v>
@@ -47444,10 +46170,8 @@
           <t>3751833162</t>
         </is>
       </c>
-      <c r="H647" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:53:33</t>
-        </is>
+      <c r="H647" s="1" t="n">
+        <v>44162.62052083333</v>
       </c>
       <c r="I647" t="n">
         <v>0</v>
@@ -47523,10 +46247,8 @@
           <t>3751822036</t>
         </is>
       </c>
-      <c r="H648" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:53:21</t>
-        </is>
+      <c r="H648" s="1" t="n">
+        <v>44162.62038194444</v>
       </c>
       <c r="I648" t="n">
         <v>1</v>
@@ -47588,10 +46310,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H649" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:52:57</t>
-        </is>
+      <c r="H649" s="1" t="n">
+        <v>44162.62010416666</v>
       </c>
       <c r="I649" t="n">
         <v>337</v>
@@ -47663,10 +46383,8 @@
           <t>3751822036</t>
         </is>
       </c>
-      <c r="H650" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:52:47</t>
-        </is>
+      <c r="H650" s="1" t="n">
+        <v>44162.61998842593</v>
       </c>
       <c r="I650" t="n">
         <v>1</v>
@@ -47726,10 +46444,8 @@
           <t>3751822036</t>
         </is>
       </c>
-      <c r="H651" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:51:48</t>
-        </is>
+      <c r="H651" s="1" t="n">
+        <v>44162.61930555556</v>
       </c>
       <c r="I651" t="n">
         <v>0</v>
@@ -47801,10 +46517,8 @@
           <t>3751822036</t>
         </is>
       </c>
-      <c r="H652" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:51:29</t>
-        </is>
+      <c r="H652" s="1" t="n">
+        <v>44162.61908564815</v>
       </c>
       <c r="I652" t="n">
         <v>7</v>
@@ -47880,10 +46594,8 @@
           <t>3751828575</t>
         </is>
       </c>
-      <c r="H653" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:51:28</t>
-        </is>
+      <c r="H653" s="1" t="n">
+        <v>44162.61907407407</v>
       </c>
       <c r="I653" t="n">
         <v>17</v>
@@ -47951,10 +46663,8 @@
           <t>3751831498</t>
         </is>
       </c>
-      <c r="H654" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:51:25</t>
-        </is>
+      <c r="H654" s="1" t="n">
+        <v>44162.61903935186</v>
       </c>
       <c r="I654" t="n">
         <v>2</v>
@@ -48014,10 +46724,8 @@
           <t>3751828434</t>
         </is>
       </c>
-      <c r="H655" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:51:18</t>
-        </is>
+      <c r="H655" s="1" t="n">
+        <v>44162.61895833333</v>
       </c>
       <c r="I655" t="n">
         <v>0</v>
@@ -48081,10 +46789,8 @@
           <t>3751794012</t>
         </is>
       </c>
-      <c r="H656" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:51:14</t>
-        </is>
+      <c r="H656" s="1" t="n">
+        <v>44162.61891203704</v>
       </c>
       <c r="I656" t="n">
         <v>0</v>
@@ -48157,10 +46863,8 @@
           <t>3751831014</t>
         </is>
       </c>
-      <c r="H657" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:50:49</t>
-        </is>
+      <c r="H657" s="1" t="n">
+        <v>44162.61862268519</v>
       </c>
       <c r="I657" t="n">
         <v>36</v>
@@ -48228,10 +46932,8 @@
           <t>3751827315</t>
         </is>
       </c>
-      <c r="H658" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:50:36</t>
-        </is>
+      <c r="H658" s="1" t="n">
+        <v>44162.61847222222</v>
       </c>
       <c r="I658" t="n">
         <v>0</v>
@@ -48291,10 +46993,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H659" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:50:32</t>
-        </is>
+      <c r="H659" s="1" t="n">
+        <v>44162.61842592592</v>
       </c>
       <c r="I659" t="n">
         <v>2</v>
@@ -48367,10 +47067,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H660" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:50:30</t>
-        </is>
+      <c r="H660" s="1" t="n">
+        <v>44162.61840277778</v>
       </c>
       <c r="I660" t="n">
         <v>194</v>
@@ -48438,10 +47136,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H661" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:50:23</t>
-        </is>
+      <c r="H661" s="1" t="n">
+        <v>44162.61832175926</v>
       </c>
       <c r="I661" t="n">
         <v>29</v>
@@ -48517,10 +47213,8 @@
           <t>3751827315</t>
         </is>
       </c>
-      <c r="H662" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:49:56</t>
-        </is>
+      <c r="H662" s="1" t="n">
+        <v>44162.61800925926</v>
       </c>
       <c r="I662" t="n">
         <v>10</v>
@@ -48588,10 +47282,8 @@
           <t>3751827115</t>
         </is>
       </c>
-      <c r="H663" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:49:43</t>
-        </is>
+      <c r="H663" s="1" t="n">
+        <v>44162.61785879629</v>
       </c>
       <c r="I663" t="n">
         <v>2</v>
@@ -48659,10 +47351,8 @@
           <t>3751823373</t>
         </is>
       </c>
-      <c r="H664" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:49:29</t>
-        </is>
+      <c r="H664" s="1" t="n">
+        <v>44162.61769675926</v>
       </c>
       <c r="I664" t="n">
         <v>0</v>
@@ -48734,10 +47424,8 @@
           <t>3751794012</t>
         </is>
       </c>
-      <c r="H665" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:49:08</t>
-        </is>
+      <c r="H665" s="1" t="n">
+        <v>44162.6174537037</v>
       </c>
       <c r="I665" t="n">
         <v>6</v>
@@ -48813,10 +47501,8 @@
           <t>3751819414</t>
         </is>
       </c>
-      <c r="H666" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:49:01</t>
-        </is>
+      <c r="H666" s="1" t="n">
+        <v>44162.61737268518</v>
       </c>
       <c r="I666" t="n">
         <v>3</v>
@@ -48884,10 +47570,8 @@
           <t>3751826413</t>
         </is>
       </c>
-      <c r="H667" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:48:52</t>
-        </is>
+      <c r="H667" s="1" t="n">
+        <v>44162.61726851852</v>
       </c>
       <c r="I667" t="n">
         <v>4</v>
@@ -48959,10 +47643,8 @@
           <t>3751824109</t>
         </is>
       </c>
-      <c r="H668" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:48:32</t>
-        </is>
+      <c r="H668" s="1" t="n">
+        <v>44162.61703703704</v>
       </c>
       <c r="I668" t="n">
         <v>1</v>
@@ -49030,10 +47712,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H669" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:48:24</t>
-        </is>
+      <c r="H669" s="1" t="n">
+        <v>44162.61694444445</v>
       </c>
       <c r="I669" t="n">
         <v>0</v>
@@ -49109,10 +47789,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H670" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:48:21</t>
-        </is>
+      <c r="H670" s="1" t="n">
+        <v>44162.61690972222</v>
       </c>
       <c r="I670" t="n">
         <v>29</v>
@@ -49180,10 +47858,8 @@
           <t>3751818849</t>
         </is>
       </c>
-      <c r="H671" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:48:17</t>
-        </is>
+      <c r="H671" s="1" t="n">
+        <v>44162.61686342592</v>
       </c>
       <c r="I671" t="n">
         <v>0</v>
@@ -49256,10 +47932,8 @@
           <t>3751822036</t>
         </is>
       </c>
-      <c r="H672" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:48:06</t>
-        </is>
+      <c r="H672" s="1" t="n">
+        <v>44162.61673611111</v>
       </c>
       <c r="I672" t="n">
         <v>1</v>
@@ -49331,10 +48005,8 @@
           <t>3751789307</t>
         </is>
       </c>
-      <c r="H673" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:47:43</t>
-        </is>
+      <c r="H673" s="1" t="n">
+        <v>44162.61646990741</v>
       </c>
       <c r="I673" t="n">
         <v>0</v>
@@ -49406,10 +48078,8 @@
           <t>3751823373</t>
         </is>
       </c>
-      <c r="H674" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:47:42</t>
-        </is>
+      <c r="H674" s="1" t="n">
+        <v>44162.61645833333</v>
       </c>
       <c r="I674" t="n">
         <v>10</v>
@@ -49485,10 +48155,8 @@
           <t>3751822036</t>
         </is>
       </c>
-      <c r="H675" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:47:21</t>
-        </is>
+      <c r="H675" s="1" t="n">
+        <v>44162.61621527778</v>
       </c>
       <c r="I675" t="n">
         <v>1</v>
@@ -49548,10 +48216,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H676" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:47:16</t>
-        </is>
+      <c r="H676" s="1" t="n">
+        <v>44162.61615740741</v>
       </c>
       <c r="I676" t="n">
         <v>0</v>
@@ -49619,10 +48285,8 @@
           <t>3751817338</t>
         </is>
       </c>
-      <c r="H677" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:46:22</t>
-        </is>
+      <c r="H677" s="1" t="n">
+        <v>44162.61553240741</v>
       </c>
       <c r="I677" t="n">
         <v>20</v>
@@ -49694,10 +48358,8 @@
           <t>3751814236</t>
         </is>
       </c>
-      <c r="H678" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:46:12</t>
-        </is>
+      <c r="H678" s="1" t="n">
+        <v>44162.61541666667</v>
       </c>
       <c r="I678" t="n">
         <v>15</v>
@@ -49761,10 +48423,8 @@
           <t>3751798969</t>
         </is>
       </c>
-      <c r="H679" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:46:12</t>
-        </is>
+      <c r="H679" s="1" t="n">
+        <v>44162.61541666667</v>
       </c>
       <c r="I679" t="n">
         <v>0</v>
@@ -49836,10 +48496,8 @@
           <t>3751822036</t>
         </is>
       </c>
-      <c r="H680" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:45:54</t>
-        </is>
+      <c r="H680" s="1" t="n">
+        <v>44162.61520833334</v>
       </c>
       <c r="I680" t="n">
         <v>17</v>
@@ -49915,10 +48573,8 @@
           <t>3751798969</t>
         </is>
       </c>
-      <c r="H681" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:45:46</t>
-        </is>
+      <c r="H681" s="1" t="n">
+        <v>44162.61511574074</v>
       </c>
       <c r="I681" t="n">
         <v>0</v>
@@ -49994,10 +48650,8 @@
           <t>3751813541</t>
         </is>
       </c>
-      <c r="H682" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:45:21</t>
-        </is>
+      <c r="H682" s="1" t="n">
+        <v>44162.61482638889</v>
       </c>
       <c r="I682" t="n">
         <v>0</v>
@@ -50073,10 +48727,8 @@
           <t>3751811914</t>
         </is>
       </c>
-      <c r="H683" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:45:06</t>
-        </is>
+      <c r="H683" s="1" t="n">
+        <v>44162.61465277777</v>
       </c>
       <c r="I683" t="n">
         <v>3</v>
@@ -50153,10 +48805,8 @@
           <t>3751789307</t>
         </is>
       </c>
-      <c r="H684" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:45:06</t>
-        </is>
+      <c r="H684" s="1" t="n">
+        <v>44162.61465277777</v>
       </c>
       <c r="I684" t="n">
         <v>0</v>
@@ -50228,10 +48878,8 @@
           <t>3751789307</t>
         </is>
       </c>
-      <c r="H685" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:44:35</t>
-        </is>
+      <c r="H685" s="1" t="n">
+        <v>44162.61429398148</v>
       </c>
       <c r="I685" t="n">
         <v>0</v>
@@ -50307,10 +48955,8 @@
           <t>3751789307</t>
         </is>
       </c>
-      <c r="H686" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:44:09</t>
-        </is>
+      <c r="H686" s="1" t="n">
+        <v>44162.61399305556</v>
       </c>
       <c r="I686" t="n">
         <v>0</v>
@@ -50382,10 +49028,8 @@
           <t>3751798969</t>
         </is>
       </c>
-      <c r="H687" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:44:05</t>
-        </is>
+      <c r="H687" s="1" t="n">
+        <v>44162.61394675926</v>
       </c>
       <c r="I687" t="n">
         <v>0</v>
@@ -50461,10 +49105,8 @@
           <t>3751802000</t>
         </is>
       </c>
-      <c r="H688" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:44:02</t>
-        </is>
+      <c r="H688" s="1" t="n">
+        <v>44162.61391203704</v>
       </c>
       <c r="I688" t="n">
         <v>1</v>
@@ -50532,10 +49174,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H689" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:43:40</t>
-        </is>
+      <c r="H689" s="1" t="n">
+        <v>44162.6136574074</v>
       </c>
       <c r="I689" t="n">
         <v>84</v>
@@ -50615,10 +49255,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H690" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:43:24</t>
-        </is>
+      <c r="H690" s="1" t="n">
+        <v>44162.61347222222</v>
       </c>
       <c r="I690" t="n">
         <v>52</v>
@@ -50695,10 +49333,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H691" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:43:24</t>
-        </is>
+      <c r="H691" s="1" t="n">
+        <v>44162.61347222222</v>
       </c>
       <c r="I691" t="n">
         <v>95</v>
@@ -50762,10 +49398,8 @@
           <t>3751811914</t>
         </is>
       </c>
-      <c r="H692" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:43:17</t>
-        </is>
+      <c r="H692" s="1" t="n">
+        <v>44162.6133912037</v>
       </c>
       <c r="I692" t="n">
         <v>33</v>
@@ -50840,10 +49474,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H693" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:43:11</t>
-        </is>
+      <c r="H693" s="1" t="n">
+        <v>44162.61332175926</v>
       </c>
       <c r="I693" t="n">
         <v>0</v>
@@ -50912,10 +49544,8 @@
           <t>3751811800</t>
         </is>
       </c>
-      <c r="H694" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:43:09</t>
-        </is>
+      <c r="H694" s="1" t="n">
+        <v>44162.61329861111</v>
       </c>
       <c r="I694" t="n">
         <v>0</v>
@@ -50987,10 +49617,8 @@
           <t>3751798969</t>
         </is>
       </c>
-      <c r="H695" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:43:09</t>
-        </is>
+      <c r="H695" s="1" t="n">
+        <v>44162.61329861111</v>
       </c>
       <c r="I695" t="n">
         <v>1</v>
@@ -51050,10 +49678,8 @@
           <t>3751809844</t>
         </is>
       </c>
-      <c r="H696" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:43:08</t>
-        </is>
+      <c r="H696" s="1" t="n">
+        <v>44162.61328703703</v>
       </c>
       <c r="I696" t="n">
         <v>0</v>
@@ -51117,10 +49743,8 @@
           <t>3751803543</t>
         </is>
       </c>
-      <c r="H697" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:42:33</t>
-        </is>
+      <c r="H697" s="1" t="n">
+        <v>44162.61288194444</v>
       </c>
       <c r="I697" t="n">
         <v>6</v>
@@ -51212,10 +49836,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H698" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:42:26</t>
-        </is>
+      <c r="H698" s="1" t="n">
+        <v>44162.61280092593</v>
       </c>
       <c r="I698" t="n">
         <v>52</v>
@@ -51287,10 +49909,8 @@
           <t>3751798969</t>
         </is>
       </c>
-      <c r="H699" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:41:45</t>
-        </is>
+      <c r="H699" s="1" t="n">
+        <v>44162.61232638889</v>
       </c>
       <c r="I699" t="n">
         <v>0</v>
@@ -51365,10 +49985,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H700" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:41:30</t>
-        </is>
+      <c r="H700" s="1" t="n">
+        <v>44162.61215277778</v>
       </c>
       <c r="I700" t="n">
         <v>5</v>
@@ -51439,10 +50057,8 @@
           <t>3751798969</t>
         </is>
       </c>
-      <c r="H701" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:41:28</t>
-        </is>
+      <c r="H701" s="1" t="n">
+        <v>44162.61212962963</v>
       </c>
       <c r="I701" t="n">
         <v>0</v>
@@ -51522,10 +50138,8 @@
           <t>3751803543</t>
         </is>
       </c>
-      <c r="H702" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:41:17</t>
-        </is>
+      <c r="H702" s="1" t="n">
+        <v>44162.61200231482</v>
       </c>
       <c r="I702" t="n">
         <v>7</v>
@@ -51601,10 +50215,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H703" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:41:05</t>
-        </is>
+      <c r="H703" s="1" t="n">
+        <v>44162.61186342593</v>
       </c>
       <c r="I703" t="n">
         <v>0</v>
@@ -51672,10 +50284,8 @@
           <t>3751803246</t>
         </is>
       </c>
-      <c r="H704" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:40:52</t>
-        </is>
+      <c r="H704" s="1" t="n">
+        <v>44162.61171296296</v>
       </c>
       <c r="I704" t="n">
         <v>2</v>
@@ -51747,10 +50357,8 @@
           <t>3751795934</t>
         </is>
       </c>
-      <c r="H705" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:40:26</t>
-        </is>
+      <c r="H705" s="1" t="n">
+        <v>44162.61141203704</v>
       </c>
       <c r="I705" t="n">
         <v>1</v>
@@ -51822,10 +50430,8 @@
           <t>3751799205</t>
         </is>
       </c>
-      <c r="H706" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:40:24</t>
-        </is>
+      <c r="H706" s="1" t="n">
+        <v>44162.61138888889</v>
       </c>
       <c r="I706" t="n">
         <v>1</v>
@@ -51901,10 +50507,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H707" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:40:03</t>
-        </is>
+      <c r="H707" s="1" t="n">
+        <v>44162.61114583333</v>
       </c>
       <c r="I707" t="n">
         <v>182</v>
@@ -51964,10 +50568,8 @@
           <t>3751799205</t>
         </is>
       </c>
-      <c r="H708" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:39:55</t>
-        </is>
+      <c r="H708" s="1" t="n">
+        <v>44162.61105324074</v>
       </c>
       <c r="I708" t="n">
         <v>3</v>
@@ -52040,10 +50642,8 @@
           <t>3751789307</t>
         </is>
       </c>
-      <c r="H709" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:39:39</t>
-        </is>
+      <c r="H709" s="1" t="n">
+        <v>44162.61086805556</v>
       </c>
       <c r="I709" t="n">
         <v>0</v>
@@ -52107,10 +50707,8 @@
           <t>3751798969</t>
         </is>
       </c>
-      <c r="H710" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:39:35</t>
-        </is>
+      <c r="H710" s="1" t="n">
+        <v>44162.61082175926</v>
       </c>
       <c r="I710" t="n">
         <v>2</v>
@@ -52170,10 +50768,8 @@
           <t>3751806864</t>
         </is>
       </c>
-      <c r="H711" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:39:15</t>
-        </is>
+      <c r="H711" s="1" t="n">
+        <v>44162.61059027778</v>
       </c>
       <c r="I711" t="n">
         <v>55</v>
@@ -52245,10 +50841,8 @@
           <t>3751802000</t>
         </is>
       </c>
-      <c r="H712" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:39:12</t>
-        </is>
+      <c r="H712" s="1" t="n">
+        <v>44162.61055555556</v>
       </c>
       <c r="I712" t="n">
         <v>4</v>
@@ -52312,10 +50906,8 @@
           <t>3751798547</t>
         </is>
       </c>
-      <c r="H713" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:39:03</t>
-        </is>
+      <c r="H713" s="1" t="n">
+        <v>44162.61045138889</v>
       </c>
       <c r="I713" t="n">
         <v>13</v>
@@ -52384,10 +50976,8 @@
           <t>3751789307</t>
         </is>
       </c>
-      <c r="H714" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:38:47</t>
-        </is>
+      <c r="H714" s="1" t="n">
+        <v>44162.6102662037</v>
       </c>
       <c r="I714" t="n">
         <v>5</v>
@@ -52463,10 +51053,8 @@
           <t>3751806463</t>
         </is>
       </c>
-      <c r="H715" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:38:44</t>
-        </is>
+      <c r="H715" s="1" t="n">
+        <v>44162.61023148148</v>
       </c>
       <c r="I715" t="n">
         <v>26</v>
@@ -52538,10 +51126,8 @@
           <t>3751801292</t>
         </is>
       </c>
-      <c r="H716" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:38:15</t>
-        </is>
+      <c r="H716" s="1" t="n">
+        <v>44162.60989583333</v>
       </c>
       <c r="I716" t="n">
         <v>24</v>
@@ -52613,10 +51199,8 @@
           <t>3751789307</t>
         </is>
       </c>
-      <c r="H717" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:38:14</t>
-        </is>
+      <c r="H717" s="1" t="n">
+        <v>44162.60988425926</v>
       </c>
       <c r="I717" t="n">
         <v>0</v>
@@ -52688,10 +51272,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H718" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:38:13</t>
-        </is>
+      <c r="H718" s="1" t="n">
+        <v>44162.60987268519</v>
       </c>
       <c r="I718" t="n">
         <v>84</v>
@@ -52767,10 +51349,8 @@
           <t>3751801113</t>
         </is>
       </c>
-      <c r="H719" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:38:01</t>
-        </is>
+      <c r="H719" s="1" t="n">
+        <v>44162.60973379629</v>
       </c>
       <c r="I719" t="n">
         <v>0</v>
@@ -52842,10 +51422,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H720" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:37:41</t>
-        </is>
+      <c r="H720" s="1" t="n">
+        <v>44162.60950231482</v>
       </c>
       <c r="I720" t="n">
         <v>0</v>
@@ -52928,10 +51506,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H721" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:36:56</t>
-        </is>
+      <c r="H721" s="1" t="n">
+        <v>44162.60898148148</v>
       </c>
       <c r="I721" t="n">
         <v>10</v>
@@ -53004,10 +51580,8 @@
           <t>3751794494</t>
         </is>
       </c>
-      <c r="H722" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:36:54</t>
-        </is>
+      <c r="H722" s="1" t="n">
+        <v>44162.60895833333</v>
       </c>
       <c r="I722" t="n">
         <v>0</v>
@@ -53083,10 +51657,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H723" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:36:18</t>
-        </is>
+      <c r="H723" s="1" t="n">
+        <v>44162.60854166667</v>
       </c>
       <c r="I723" t="n">
         <v>0</v>
@@ -53162,10 +51734,8 @@
           <t>3751794012</t>
         </is>
       </c>
-      <c r="H724" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:36:11</t>
-        </is>
+      <c r="H724" s="1" t="n">
+        <v>44162.60846064815</v>
       </c>
       <c r="I724" t="n">
         <v>0</v>
@@ -53237,10 +51807,8 @@
           <t>3751794494</t>
         </is>
       </c>
-      <c r="H725" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:36:11</t>
-        </is>
+      <c r="H725" s="1" t="n">
+        <v>44162.60846064815</v>
       </c>
       <c r="I725" t="n">
         <v>3</v>
@@ -53316,10 +51884,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H726" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:36:05</t>
-        </is>
+      <c r="H726" s="1" t="n">
+        <v>44162.60839120371</v>
       </c>
       <c r="I726" t="n">
         <v>2</v>
@@ -53387,10 +51953,8 @@
           <t>3751795934</t>
         </is>
       </c>
-      <c r="H727" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:35:48</t>
-        </is>
+      <c r="H727" s="1" t="n">
+        <v>44162.60819444444</v>
       </c>
       <c r="I727" t="n">
         <v>50</v>
@@ -53453,10 +52017,8 @@
           <t>3751789307</t>
         </is>
       </c>
-      <c r="H728" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:35:43</t>
-        </is>
+      <c r="H728" s="1" t="n">
+        <v>44162.60813657408</v>
       </c>
       <c r="I728" t="n">
         <v>57</v>
@@ -53520,10 +52082,8 @@
           <t>3751794012</t>
         </is>
       </c>
-      <c r="H729" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:35:37</t>
-        </is>
+      <c r="H729" s="1" t="n">
+        <v>44162.60806712963</v>
       </c>
       <c r="I729" t="n">
         <v>81</v>
@@ -53595,10 +52155,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H730" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:35:28</t>
-        </is>
+      <c r="H730" s="1" t="n">
+        <v>44162.60796296296</v>
       </c>
       <c r="I730" t="n">
         <v>0</v>
@@ -53662,10 +52220,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H731" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:35:10</t>
-        </is>
+      <c r="H731" s="1" t="n">
+        <v>44162.60775462963</v>
       </c>
       <c r="I731" t="n">
         <v>1</v>
@@ -53733,10 +52289,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H732" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:35:09</t>
-        </is>
+      <c r="H732" s="1" t="n">
+        <v>44162.60774305555</v>
       </c>
       <c r="I732" t="n">
         <v>4</v>
@@ -53812,10 +52366,8 @@
           <t>3751788597</t>
         </is>
       </c>
-      <c r="H733" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:34:45</t>
-        </is>
+      <c r="H733" s="1" t="n">
+        <v>44162.60746527778</v>
       </c>
       <c r="I733" t="n">
         <v>0</v>
@@ -53883,10 +52435,8 @@
           <t>3751793305</t>
         </is>
       </c>
-      <c r="H734" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:34:44</t>
-        </is>
+      <c r="H734" s="1" t="n">
+        <v>44162.60745370371</v>
       </c>
       <c r="I734" t="n">
         <v>0</v>
@@ -53969,10 +52519,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H735" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:34:27</t>
-        </is>
+      <c r="H735" s="1" t="n">
+        <v>44162.60725694444</v>
       </c>
       <c r="I735" t="n">
         <v>52</v>
@@ -54044,10 +52592,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H736" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:34:05</t>
-        </is>
+      <c r="H736" s="1" t="n">
+        <v>44162.60700231481</v>
       </c>
       <c r="I736" t="n">
         <v>1</v>
@@ -54111,10 +52657,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H737" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:33:21</t>
-        </is>
+      <c r="H737" s="1" t="n">
+        <v>44162.60649305556</v>
       </c>
       <c r="I737" t="n">
         <v>0</v>
@@ -54178,10 +52722,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H738" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:32:28</t>
-        </is>
+      <c r="H738" s="1" t="n">
+        <v>44162.60587962963</v>
       </c>
       <c r="I738" t="n">
         <v>1</v>
@@ -54272,10 +52814,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H739" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:32:19</t>
-        </is>
+      <c r="H739" s="1" t="n">
+        <v>44162.60577546297</v>
       </c>
       <c r="I739" t="n">
         <v>121</v>
@@ -54343,10 +52883,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H740" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:31:52</t>
-        </is>
+      <c r="H740" s="1" t="n">
+        <v>44162.60546296297</v>
       </c>
       <c r="I740" t="n">
         <v>1</v>
@@ -54422,10 +52960,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H741" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:31:51</t>
-        </is>
+      <c r="H741" s="1" t="n">
+        <v>44162.60545138889</v>
       </c>
       <c r="I741" t="n">
         <v>0</v>
@@ -54489,10 +53025,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H742" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:31:51</t>
-        </is>
+      <c r="H742" s="1" t="n">
+        <v>44162.60545138889</v>
       </c>
       <c r="I742" t="n">
         <v>0</v>
@@ -54568,10 +53102,8 @@
           <t>3751786410</t>
         </is>
       </c>
-      <c r="H743" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:31:51</t>
-        </is>
+      <c r="H743" s="1" t="n">
+        <v>44162.60545138889</v>
       </c>
       <c r="I743" t="n">
         <v>18</v>
@@ -54647,10 +53179,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H744" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:31:46</t>
-        </is>
+      <c r="H744" s="1" t="n">
+        <v>44162.60539351852</v>
       </c>
       <c r="I744" t="n">
         <v>1</v>
@@ -54726,10 +53256,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H745" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:31:45</t>
-        </is>
+      <c r="H745" s="1" t="n">
+        <v>44162.60538194444</v>
       </c>
       <c r="I745" t="n">
         <v>0</v>
@@ -54801,10 +53329,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H746" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:31:43</t>
-        </is>
+      <c r="H746" s="1" t="n">
+        <v>44162.6053587963</v>
       </c>
       <c r="I746" t="n">
         <v>0</v>
@@ -54874,10 +53400,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H747" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:31:29</t>
-        </is>
+      <c r="H747" s="1" t="n">
+        <v>44162.60519675926</v>
       </c>
       <c r="I747" t="n">
         <v>71</v>
@@ -54949,10 +53473,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H748" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:31:28</t>
-        </is>
+      <c r="H748" s="1" t="n">
+        <v>44162.60518518519</v>
       </c>
       <c r="I748" t="n">
         <v>4</v>
@@ -55020,10 +53542,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H749" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:31:21</t>
-        </is>
+      <c r="H749" s="1" t="n">
+        <v>44162.60510416667</v>
       </c>
       <c r="I749" t="n">
         <v>1</v>
@@ -55087,10 +53607,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H750" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:31:18</t>
-        </is>
+      <c r="H750" s="1" t="n">
+        <v>44162.60506944444</v>
       </c>
       <c r="I750" t="n">
         <v>0</v>
@@ -55162,10 +53680,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H751" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:31:01</t>
-        </is>
+      <c r="H751" s="1" t="n">
+        <v>44162.60487268519</v>
       </c>
       <c r="I751" t="n">
         <v>1451</v>
@@ -55237,10 +53753,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H752" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:30:54</t>
-        </is>
+      <c r="H752" s="1" t="n">
+        <v>44162.60479166666</v>
       </c>
       <c r="I752" t="n">
         <v>0</v>
@@ -55331,10 +53845,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H753" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:30:49</t>
-        </is>
+      <c r="H753" s="1" t="n">
+        <v>44162.6047337963</v>
       </c>
       <c r="I753" t="n">
         <v>620</v>
@@ -55410,10 +53922,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H754" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:30:46</t>
-        </is>
+      <c r="H754" s="1" t="n">
+        <v>44162.60469907407</v>
       </c>
       <c r="I754" t="n">
         <v>0</v>
@@ -55489,10 +53999,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H755" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:30:41</t>
-        </is>
+      <c r="H755" s="1" t="n">
+        <v>44162.6046412037</v>
       </c>
       <c r="I755" t="n">
         <v>1</v>
@@ -55564,10 +54072,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H756" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:30:34</t>
-        </is>
+      <c r="H756" s="1" t="n">
+        <v>44162.60456018519</v>
       </c>
       <c r="I756" t="n">
         <v>4</v>
@@ -55635,10 +54141,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H757" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:30:20</t>
-        </is>
+      <c r="H757" s="1" t="n">
+        <v>44162.60439814815</v>
       </c>
       <c r="I757" t="n">
         <v>2</v>
@@ -55714,10 +54218,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H758" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:30:20</t>
-        </is>
+      <c r="H758" s="1" t="n">
+        <v>44162.60439814815</v>
       </c>
       <c r="I758" t="n">
         <v>0</v>
@@ -55789,10 +54291,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H759" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:30:17</t>
-        </is>
+      <c r="H759" s="1" t="n">
+        <v>44162.60436342593</v>
       </c>
       <c r="I759" t="n">
         <v>0</v>
@@ -55860,10 +54360,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H760" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:30:16</t>
-        </is>
+      <c r="H760" s="1" t="n">
+        <v>44162.60435185185</v>
       </c>
       <c r="I760" t="n">
         <v>1</v>
